--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1100" windowWidth="32000" windowHeight="18360" activeTab="3"/>
+    <workbookView xWindow="3800" yWindow="1120" windowWidth="32000" windowHeight="18360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="恐龙" sheetId="1" r:id="rId1"/>
-    <sheet name="dinosaurs" sheetId="3" r:id="rId2"/>
+    <sheet name="dinosaurs_ori" sheetId="3" r:id="rId2"/>
     <sheet name="experience" sheetId="4" r:id="rId3"/>
     <sheet name="skills" sheetId="2" r:id="rId4"/>
     <sheet name="food" sheetId="5" r:id="rId5"/>
+    <sheet name="dinosaurs_avai" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -506,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +550,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,7 +575,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,8 +621,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,8 +659,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -636,6 +677,10 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -643,6 +688,10 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1061,67 +1110,67 @@
         <v>25</v>
       </c>
       <c r="E2" s="2">
-        <f>dinosaurs!E2*0.8</f>
+        <f>dinosaurs_ori!E2*0.8</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <f>dinosaurs_ori!F2*0.8</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="G2" s="2">
+        <f>dinosaurs_ori!G2*0.8</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H2" s="2">
+        <f>dinosaurs_ori!H2*0.8</f>
         <v>16</v>
       </c>
-      <c r="F2" s="2">
-        <f>dinosaurs!F2*0.8</f>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="G2" s="2">
-        <f>dinosaurs!G2*0.8</f>
+      <c r="I2" s="2">
+        <f>dinosaurs_ori!E2*1.2</f>
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <f>dinosaurs_ori!F2*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <f>dinosaurs_ori!G2*1.2</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="L2" s="2">
+        <f>dinosaurs_ori!H2*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <f>dinosaurs_ori!I2*0.8</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H2" s="2">
-        <f>dinosaurs!H2*0.8</f>
-        <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <f>dinosaurs!E2*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="J2" s="2">
-        <f>dinosaurs!F2*1.2</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="K2" s="2">
-        <f>dinosaurs!G2*1.2</f>
+      <c r="N2" s="2">
+        <f>dinosaurs_ori!I2*1.2</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="L2" s="2">
-        <f>dinosaurs!H2*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="M2" s="2">
-        <f>dinosaurs!I2*0.8</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="N2" s="2">
-        <f>dinosaurs!I2*1.2</f>
-        <v>7.1999999999999993</v>
-      </c>
       <c r="O2" s="2">
-        <f>dinosaurs!J2*0.8</f>
+        <f>dinosaurs_ori!J2*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="P2" s="2">
-        <f>dinosaurs!J2*1.2</f>
+        <f>dinosaurs_ori!J2*1.2</f>
         <v>2.64</v>
       </c>
       <c r="Q2" s="2">
-        <f>dinosaurs!K2*0.8</f>
+        <f>dinosaurs_ori!K2*0.8</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="R2" s="2">
-        <f>dinosaurs!K2*1.2</f>
+        <f>dinosaurs_ori!K2*1.2</f>
         <v>1.92</v>
       </c>
       <c r="S2" s="2">
-        <f>dinosaurs!L2*0.8</f>
+        <f>dinosaurs_ori!L2*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="T2" s="2">
-        <f>dinosaurs!L2*1.2</f>
+        <f>dinosaurs_ori!L2*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="U2" s="2">
@@ -1154,67 +1203,67 @@
         <v>29</v>
       </c>
       <c r="E3" s="2">
-        <f>dinosaurs!E3*0.8</f>
-        <v>20</v>
+        <f>dinosaurs_ori!E3*0.8</f>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
-        <f>dinosaurs!F3*0.8</f>
+        <f>dinosaurs_ori!F3*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f>dinosaurs!G3*0.8</f>
+        <f>dinosaurs_ori!G3*0.8</f>
         <v>6.4</v>
       </c>
       <c r="H3" s="2">
-        <f>dinosaurs!H3*0.8</f>
+        <f>dinosaurs_ori!H3*0.8</f>
         <v>14.4</v>
       </c>
       <c r="I3" s="2">
-        <f>dinosaurs!E3*1.2</f>
-        <v>30</v>
+        <f>dinosaurs_ori!E3*1.2</f>
+        <v>150</v>
       </c>
       <c r="J3" s="2">
-        <f>dinosaurs!F3*1.2</f>
+        <f>dinosaurs_ori!F3*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K3" s="2">
-        <f>dinosaurs!G3*1.2</f>
+        <f>dinosaurs_ori!G3*1.2</f>
         <v>9.6</v>
       </c>
       <c r="L3" s="2">
-        <f>dinosaurs!H3*1.2</f>
+        <f>dinosaurs_ori!H3*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="M3" s="2">
-        <f>dinosaurs!I3*0.8</f>
+        <f>dinosaurs_ori!I3*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N3" s="2">
-        <f>dinosaurs!I3*1.2</f>
+        <f>dinosaurs_ori!I3*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O3" s="2">
-        <f>dinosaurs!J3*0.8</f>
+        <f>dinosaurs_ori!J3*0.8</f>
         <v>2.08</v>
       </c>
       <c r="P3" s="2">
-        <f>dinosaurs!J3*1.2</f>
+        <f>dinosaurs_ori!J3*1.2</f>
         <v>3.12</v>
       </c>
       <c r="Q3" s="2">
-        <f>dinosaurs!K3*0.8</f>
+        <f>dinosaurs_ori!K3*0.8</f>
         <v>1.4400000000000002</v>
       </c>
       <c r="R3" s="2">
-        <f>dinosaurs!K3*1.2</f>
+        <f>dinosaurs_ori!K3*1.2</f>
         <v>2.16</v>
       </c>
       <c r="S3" s="2">
-        <f>dinosaurs!L3*0.8</f>
+        <f>dinosaurs_ori!L3*0.8</f>
         <v>1.92</v>
       </c>
       <c r="T3" s="2">
-        <f>dinosaurs!L3*1.2</f>
+        <f>dinosaurs_ori!L3*1.2</f>
         <v>2.88</v>
       </c>
       <c r="U3" s="2">
@@ -1247,67 +1296,67 @@
         <v>33</v>
       </c>
       <c r="E4" s="2">
-        <f>dinosaurs!E4*0.8</f>
-        <v>40</v>
+        <f>dinosaurs_ori!E4*0.8</f>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
-        <f>dinosaurs!F4*0.8</f>
+        <f>dinosaurs_ori!F4*0.8</f>
         <v>8</v>
       </c>
       <c r="G4" s="2">
-        <f>dinosaurs!G4*0.8</f>
+        <f>dinosaurs_ori!G4*0.8</f>
         <v>8</v>
       </c>
       <c r="H4" s="2">
-        <f>dinosaurs!H4*0.8</f>
+        <f>dinosaurs_ori!H4*0.8</f>
         <v>3.2</v>
       </c>
       <c r="I4" s="2">
-        <f>dinosaurs!E4*1.2</f>
-        <v>60</v>
+        <f>dinosaurs_ori!E4*1.2</f>
+        <v>300</v>
       </c>
       <c r="J4" s="2">
-        <f>dinosaurs!F4*1.2</f>
+        <f>dinosaurs_ori!F4*1.2</f>
         <v>12</v>
       </c>
       <c r="K4" s="2">
-        <f>dinosaurs!G4*1.2</f>
+        <f>dinosaurs_ori!G4*1.2</f>
         <v>12</v>
       </c>
       <c r="L4" s="2">
-        <f>dinosaurs!H4*1.2</f>
+        <f>dinosaurs_ori!H4*1.2</f>
         <v>4.8</v>
       </c>
       <c r="M4" s="2">
-        <f>dinosaurs!I4*0.8</f>
+        <f>dinosaurs_ori!I4*0.8</f>
         <v>8</v>
       </c>
       <c r="N4" s="2">
-        <f>dinosaurs!I4*1.2</f>
+        <f>dinosaurs_ori!I4*1.2</f>
         <v>12</v>
       </c>
       <c r="O4" s="2">
-        <f>dinosaurs!J4*0.8</f>
+        <f>dinosaurs_ori!J4*0.8</f>
         <v>1.6</v>
       </c>
       <c r="P4" s="2">
-        <f>dinosaurs!J4*1.2</f>
+        <f>dinosaurs_ori!J4*1.2</f>
         <v>2.4</v>
       </c>
       <c r="Q4" s="2">
-        <f>dinosaurs!K4*0.8</f>
+        <f>dinosaurs_ori!K4*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R4" s="2">
-        <f>dinosaurs!K4*1.2</f>
+        <f>dinosaurs_ori!K4*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S4" s="2">
-        <f>dinosaurs!L4*0.8</f>
+        <f>dinosaurs_ori!L4*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T4" s="2">
-        <f>dinosaurs!L4*1.2</f>
+        <f>dinosaurs_ori!L4*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U4" s="2">
@@ -1340,67 +1389,67 @@
         <v>38</v>
       </c>
       <c r="E5" s="2">
-        <f>dinosaurs!E5*0.8</f>
-        <v>20</v>
+        <f>dinosaurs_ori!E5*0.8</f>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
-        <f>dinosaurs!F5*0.8</f>
+        <f>dinosaurs_ori!F5*0.8</f>
         <v>12.8</v>
       </c>
       <c r="G5" s="2">
-        <f>dinosaurs!G5*0.8</f>
+        <f>dinosaurs_ori!G5*0.8</f>
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <f>dinosaurs!H5*0.8</f>
+        <f>dinosaurs_ori!H5*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I5" s="2">
-        <f>dinosaurs!E5*1.2</f>
-        <v>30</v>
+        <f>dinosaurs_ori!E5*1.2</f>
+        <v>150</v>
       </c>
       <c r="J5" s="2">
-        <f>dinosaurs!F5*1.2</f>
+        <f>dinosaurs_ori!F5*1.2</f>
         <v>19.2</v>
       </c>
       <c r="K5" s="2">
-        <f>dinosaurs!G5*1.2</f>
+        <f>dinosaurs_ori!G5*1.2</f>
         <v>12</v>
       </c>
       <c r="L5" s="2">
-        <f>dinosaurs!H5*1.2</f>
+        <f>dinosaurs_ori!H5*1.2</f>
         <v>16.8</v>
       </c>
       <c r="M5" s="2">
-        <f>dinosaurs!I5*0.8</f>
+        <f>dinosaurs_ori!I5*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N5" s="2">
-        <f>dinosaurs!I5*1.2</f>
+        <f>dinosaurs_ori!I5*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O5" s="2">
-        <f>dinosaurs!J5*0.8</f>
+        <f>dinosaurs_ori!J5*0.8</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="P5" s="2">
-        <f>dinosaurs!J5*1.2</f>
+        <f>dinosaurs_ori!J5*1.2</f>
         <v>1.92</v>
       </c>
       <c r="Q5" s="2">
-        <f>dinosaurs!K5*0.8</f>
+        <f>dinosaurs_ori!K5*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R5" s="2">
-        <f>dinosaurs!K5*1.2</f>
+        <f>dinosaurs_ori!K5*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S5" s="2">
-        <f>dinosaurs!L5*0.8</f>
+        <f>dinosaurs_ori!L5*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T5" s="2">
-        <f>dinosaurs!L5*1.2</f>
+        <f>dinosaurs_ori!L5*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U5" s="2">
@@ -1433,67 +1482,67 @@
         <v>42</v>
       </c>
       <c r="E6" s="2">
-        <f>dinosaurs!E6*0.8</f>
-        <v>16</v>
+        <f>dinosaurs_ori!E6*0.8</f>
+        <v>80</v>
       </c>
       <c r="F6" s="2">
-        <f>dinosaurs!F6*0.8</f>
+        <f>dinosaurs_ori!F6*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G6" s="2">
-        <f>dinosaurs!G6*0.8</f>
+        <f>dinosaurs_ori!G6*0.8</f>
         <v>12.8</v>
       </c>
       <c r="H6" s="2">
-        <f>dinosaurs!H6*0.8</f>
+        <f>dinosaurs_ori!H6*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I6" s="2">
-        <f>dinosaurs!E6*1.2</f>
-        <v>24</v>
+        <f>dinosaurs_ori!E6*1.2</f>
+        <v>120</v>
       </c>
       <c r="J6" s="2">
-        <f>dinosaurs!F6*1.2</f>
+        <f>dinosaurs_ori!F6*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K6" s="2">
-        <f>dinosaurs!G6*1.2</f>
+        <f>dinosaurs_ori!G6*1.2</f>
         <v>19.2</v>
       </c>
       <c r="L6" s="2">
-        <f>dinosaurs!H6*1.2</f>
+        <f>dinosaurs_ori!H6*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M6" s="2">
-        <f>dinosaurs!I6*0.8</f>
+        <f>dinosaurs_ori!I6*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N6" s="2">
-        <f>dinosaurs!I6*1.2</f>
+        <f>dinosaurs_ori!I6*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O6" s="2">
-        <f>dinosaurs!J6*0.8</f>
+        <f>dinosaurs_ori!J6*0.8</f>
         <v>1.92</v>
       </c>
       <c r="P6" s="2">
-        <f>dinosaurs!J6*1.2</f>
+        <f>dinosaurs_ori!J6*1.2</f>
         <v>2.88</v>
       </c>
       <c r="Q6" s="2">
-        <f>dinosaurs!K6*0.8</f>
+        <f>dinosaurs_ori!K6*0.8</f>
         <v>2.08</v>
       </c>
       <c r="R6" s="2">
-        <f>dinosaurs!K6*1.2</f>
+        <f>dinosaurs_ori!K6*1.2</f>
         <v>3.12</v>
       </c>
       <c r="S6" s="2">
-        <f>dinosaurs!L6*0.8</f>
+        <f>dinosaurs_ori!L6*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T6" s="2">
-        <f>dinosaurs!L6*1.2</f>
+        <f>dinosaurs_ori!L6*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U6" s="2">
@@ -1526,67 +1575,67 @@
         <v>60</v>
       </c>
       <c r="E7" s="2">
-        <f>dinosaurs!E7*0.8</f>
-        <v>20</v>
+        <f>dinosaurs_ori!E7*0.8</f>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
-        <f>dinosaurs!F7*0.8</f>
+        <f>dinosaurs_ori!F7*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G7" s="2">
-        <f>dinosaurs!G7*0.8</f>
+        <f>dinosaurs_ori!G7*0.8</f>
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <f>dinosaurs!H7*0.8</f>
+        <f>dinosaurs_ori!H7*0.8</f>
         <v>12.8</v>
       </c>
       <c r="I7" s="2">
-        <f>dinosaurs!E7*1.2</f>
-        <v>30</v>
+        <f>dinosaurs_ori!E7*1.2</f>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
-        <f>dinosaurs!F7*1.2</f>
+        <f>dinosaurs_ori!F7*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K7" s="2">
-        <f>dinosaurs!G7*1.2</f>
+        <f>dinosaurs_ori!G7*1.2</f>
         <v>12</v>
       </c>
       <c r="L7" s="2">
-        <f>dinosaurs!H7*1.2</f>
+        <f>dinosaurs_ori!H7*1.2</f>
         <v>19.2</v>
       </c>
       <c r="M7" s="2">
-        <f>dinosaurs!I7*0.8</f>
+        <f>dinosaurs_ori!I7*0.8</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N7" s="2">
-        <f>dinosaurs!I7*1.2</f>
+        <f>dinosaurs_ori!I7*1.2</f>
         <v>8.4</v>
       </c>
       <c r="O7" s="2">
-        <f>dinosaurs!J7*0.8</f>
+        <f>dinosaurs_ori!J7*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P7" s="2">
-        <f>dinosaurs!J7*1.2</f>
+        <f>dinosaurs_ori!J7*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q7" s="2">
-        <f>dinosaurs!K7*0.8</f>
+        <f>dinosaurs_ori!K7*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R7" s="2">
-        <f>dinosaurs!K7*1.2</f>
+        <f>dinosaurs_ori!K7*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S7" s="2">
-        <f>dinosaurs!L7*0.8</f>
+        <f>dinosaurs_ori!L7*0.8</f>
         <v>2.08</v>
       </c>
       <c r="T7" s="2">
-        <f>dinosaurs!L7*1.2</f>
+        <f>dinosaurs_ori!L7*1.2</f>
         <v>3.12</v>
       </c>
       <c r="U7" s="2">
@@ -1619,67 +1668,67 @@
         <v>51</v>
       </c>
       <c r="E8" s="2">
-        <f>dinosaurs!E8*0.8</f>
-        <v>24</v>
+        <f>dinosaurs_ori!E8*0.8</f>
+        <v>120</v>
       </c>
       <c r="F8" s="2">
-        <f>dinosaurs!F8*0.8</f>
+        <f>dinosaurs_ori!F8*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G8" s="2">
-        <f>dinosaurs!G8*0.8</f>
+        <f>dinosaurs_ori!G8*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H8" s="2">
-        <f>dinosaurs!H8*0.8</f>
+        <f>dinosaurs_ori!H8*0.8</f>
         <v>14.4</v>
       </c>
       <c r="I8" s="2">
-        <f>dinosaurs!E8*1.2</f>
-        <v>36</v>
+        <f>dinosaurs_ori!E8*1.2</f>
+        <v>180</v>
       </c>
       <c r="J8" s="2">
-        <f>dinosaurs!F8*1.2</f>
+        <f>dinosaurs_ori!F8*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K8" s="2">
-        <f>dinosaurs!G8*1.2</f>
+        <f>dinosaurs_ori!G8*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L8" s="2">
-        <f>dinosaurs!H8*1.2</f>
+        <f>dinosaurs_ori!H8*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="M8" s="2">
-        <f>dinosaurs!I8*0.8</f>
+        <f>dinosaurs_ori!I8*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N8" s="2">
-        <f>dinosaurs!I8*1.2</f>
+        <f>dinosaurs_ori!I8*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O8" s="2">
-        <f>dinosaurs!J8*0.8</f>
+        <f>dinosaurs_ori!J8*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="P8" s="2">
-        <f>dinosaurs!J8*1.2</f>
+        <f>dinosaurs_ori!J8*1.2</f>
         <v>1.68</v>
       </c>
       <c r="Q8" s="2">
-        <f>dinosaurs!K8*0.8</f>
+        <f>dinosaurs_ori!K8*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R8" s="2">
-        <f>dinosaurs!K8*1.2</f>
+        <f>dinosaurs_ori!K8*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S8" s="2">
-        <f>dinosaurs!L8*0.8</f>
+        <f>dinosaurs_ori!L8*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="T8" s="2">
-        <f>dinosaurs!L8*1.2</f>
+        <f>dinosaurs_ori!L8*1.2</f>
         <v>3.36</v>
       </c>
       <c r="U8" s="2">
@@ -1712,67 +1761,67 @@
         <v>56</v>
       </c>
       <c r="E9" s="2">
-        <f>dinosaurs!E9*0.8</f>
-        <v>20</v>
+        <f>dinosaurs_ori!E9*0.8</f>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
-        <f>dinosaurs!F9*0.8</f>
+        <f>dinosaurs_ori!F9*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G9" s="2">
-        <f>dinosaurs!G9*0.8</f>
+        <f>dinosaurs_ori!G9*0.8</f>
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <f>dinosaurs!H9*0.8</f>
+        <f>dinosaurs_ori!H9*0.8</f>
         <v>16</v>
       </c>
       <c r="I9" s="2">
-        <f>dinosaurs!E9*1.2</f>
-        <v>30</v>
+        <f>dinosaurs_ori!E9*1.2</f>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
-        <f>dinosaurs!F9*1.2</f>
+        <f>dinosaurs_ori!F9*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K9" s="2">
-        <f>dinosaurs!G9*1.2</f>
+        <f>dinosaurs_ori!G9*1.2</f>
         <v>12</v>
       </c>
       <c r="L9" s="2">
-        <f>dinosaurs!H9*1.2</f>
+        <f>dinosaurs_ori!H9*1.2</f>
         <v>24</v>
       </c>
       <c r="M9" s="2">
-        <f>dinosaurs!I9*0.8</f>
+        <f>dinosaurs_ori!I9*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N9" s="2">
-        <f>dinosaurs!I9*1.2</f>
+        <f>dinosaurs_ori!I9*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O9" s="2">
-        <f>dinosaurs!J9*0.8</f>
+        <f>dinosaurs_ori!J9*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P9" s="2">
-        <f>dinosaurs!J9*1.2</f>
+        <f>dinosaurs_ori!J9*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q9" s="2">
-        <f>dinosaurs!K9*0.8</f>
+        <f>dinosaurs_ori!K9*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R9" s="2">
-        <f>dinosaurs!K9*1.2</f>
+        <f>dinosaurs_ori!K9*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S9" s="2">
-        <f>dinosaurs!L9*0.8</f>
+        <f>dinosaurs_ori!L9*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="T9" s="2">
-        <f>dinosaurs!L9*1.2</f>
+        <f>dinosaurs_ori!L9*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="U9" s="2">
@@ -1805,67 +1854,67 @@
         <v>46</v>
       </c>
       <c r="E10" s="2">
-        <f>dinosaurs!E10*0.8</f>
-        <v>32</v>
+        <f>dinosaurs_ori!E10*0.8</f>
+        <v>160</v>
       </c>
       <c r="F10" s="2">
-        <f>dinosaurs!F10*0.8</f>
+        <f>dinosaurs_ori!F10*0.8</f>
         <v>16</v>
       </c>
       <c r="G10" s="2">
-        <f>dinosaurs!G10*0.8</f>
+        <f>dinosaurs_ori!G10*0.8</f>
         <v>6.4</v>
       </c>
       <c r="H10" s="2">
-        <f>dinosaurs!H10*0.8</f>
+        <f>dinosaurs_ori!H10*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I10" s="2">
-        <f>dinosaurs!E10*1.2</f>
-        <v>48</v>
+        <f>dinosaurs_ori!E10*1.2</f>
+        <v>240</v>
       </c>
       <c r="J10" s="2">
-        <f>dinosaurs!F10*1.2</f>
+        <f>dinosaurs_ori!F10*1.2</f>
         <v>24</v>
       </c>
       <c r="K10" s="2">
-        <f>dinosaurs!G10*1.2</f>
+        <f>dinosaurs_ori!G10*1.2</f>
         <v>9.6</v>
       </c>
       <c r="L10" s="2">
-        <f>dinosaurs!H10*1.2</f>
+        <f>dinosaurs_ori!H10*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M10" s="2">
-        <f>dinosaurs!I10*0.8</f>
+        <f>dinosaurs_ori!I10*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N10" s="2">
-        <f>dinosaurs!I10*1.2</f>
+        <f>dinosaurs_ori!I10*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O10" s="2">
-        <f>dinosaurs!J10*0.8</f>
+        <f>dinosaurs_ori!J10*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P10" s="2">
-        <f>dinosaurs!J10*1.2</f>
+        <f>dinosaurs_ori!J10*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q10" s="2">
-        <f>dinosaurs!K10*0.8</f>
+        <f>dinosaurs_ori!K10*0.8</f>
         <v>1.4400000000000002</v>
       </c>
       <c r="R10" s="2">
-        <f>dinosaurs!K10*1.2</f>
+        <f>dinosaurs_ori!K10*1.2</f>
         <v>2.16</v>
       </c>
       <c r="S10" s="2">
-        <f>dinosaurs!L10*0.8</f>
+        <f>dinosaurs_ori!L10*0.8</f>
         <v>0.96</v>
       </c>
       <c r="T10" s="2">
-        <f>dinosaurs!L10*1.2</f>
+        <f>dinosaurs_ori!L10*1.2</f>
         <v>1.44</v>
       </c>
       <c r="U10" s="2">
@@ -1898,67 +1947,67 @@
         <v>63</v>
       </c>
       <c r="E11" s="2">
-        <f>dinosaurs!E11*0.8</f>
+        <f>dinosaurs_ori!E11*0.8</f>
+        <v>180</v>
+      </c>
+      <c r="F11" s="2">
+        <f>dinosaurs_ori!F11*0.8</f>
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <f>dinosaurs_ori!G11*0.8</f>
+        <v>24</v>
+      </c>
+      <c r="H11" s="2">
+        <f>dinosaurs_ori!H11*0.8</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <f>dinosaurs_ori!E11*1.2</f>
+        <v>270</v>
+      </c>
+      <c r="J11" s="2">
+        <f>dinosaurs_ori!F11*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <f>dinosaurs_ori!G11*1.2</f>
         <v>36</v>
       </c>
-      <c r="F11" s="2">
-        <f>dinosaurs!F11*0.8</f>
-        <v>16</v>
-      </c>
-      <c r="G11" s="2">
-        <f>dinosaurs!G11*0.8</f>
-        <v>24</v>
-      </c>
-      <c r="H11" s="2">
-        <f>dinosaurs!H11*0.8</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="2">
-        <f>dinosaurs!E11*1.2</f>
-        <v>54</v>
-      </c>
-      <c r="J11" s="2">
-        <f>dinosaurs!F11*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="K11" s="2">
-        <f>dinosaurs!G11*1.2</f>
-        <v>36</v>
-      </c>
       <c r="L11" s="2">
-        <f>dinosaurs!H11*1.2</f>
+        <f>dinosaurs_ori!H11*1.2</f>
         <v>12</v>
       </c>
       <c r="M11" s="2">
-        <f>dinosaurs!I11*0.8</f>
+        <f>dinosaurs_ori!I11*0.8</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N11" s="2">
-        <f>dinosaurs!I11*1.2</f>
+        <f>dinosaurs_ori!I11*1.2</f>
         <v>8.4</v>
       </c>
       <c r="O11" s="2">
-        <f>dinosaurs!J11*0.8</f>
+        <f>dinosaurs_ori!J11*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P11" s="2">
-        <f>dinosaurs!J11*1.2</f>
+        <f>dinosaurs_ori!J11*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q11" s="2">
-        <f>dinosaurs!K11*0.8</f>
+        <f>dinosaurs_ori!K11*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="R11" s="2">
-        <f>dinosaurs!K11*1.2</f>
+        <f>dinosaurs_ori!K11*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="S11" s="2">
-        <f>dinosaurs!L11*0.8</f>
+        <f>dinosaurs_ori!L11*0.8</f>
         <v>1.6</v>
       </c>
       <c r="T11" s="2">
-        <f>dinosaurs!L11*1.2</f>
+        <f>dinosaurs_ori!L11*1.2</f>
         <v>2.4</v>
       </c>
       <c r="U11" s="2">
@@ -1991,67 +2040,67 @@
         <v>38</v>
       </c>
       <c r="E12" s="2">
-        <f>dinosaurs!E12*0.8</f>
-        <v>24</v>
+        <f>dinosaurs_ori!E12*0.8</f>
+        <v>120</v>
       </c>
       <c r="F12" s="2">
-        <f>dinosaurs!F12*0.8</f>
+        <f>dinosaurs_ori!F12*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G12" s="2">
-        <f>dinosaurs!G12*0.8</f>
+        <f>dinosaurs_ori!G12*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H12" s="2">
-        <f>dinosaurs!H12*0.8</f>
+        <f>dinosaurs_ori!H12*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I12" s="2">
-        <f>dinosaurs!E12*1.2</f>
-        <v>36</v>
+        <f>dinosaurs_ori!E12*1.2</f>
+        <v>180</v>
       </c>
       <c r="J12" s="2">
-        <f>dinosaurs!F12*1.2</f>
+        <f>dinosaurs_ori!F12*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K12" s="2">
-        <f>dinosaurs!G12*1.2</f>
+        <f>dinosaurs_ori!G12*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L12" s="2">
-        <f>dinosaurs!H12*1.2</f>
+        <f>dinosaurs_ori!H12*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M12" s="2">
-        <f>dinosaurs!I12*0.8</f>
+        <f>dinosaurs_ori!I12*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N12" s="2">
-        <f>dinosaurs!I12*1.2</f>
+        <f>dinosaurs_ori!I12*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O12" s="2">
-        <f>dinosaurs!J12*0.8</f>
+        <f>dinosaurs_ori!J12*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P12" s="2">
-        <f>dinosaurs!J12*1.2</f>
+        <f>dinosaurs_ori!J12*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q12" s="2">
-        <f>dinosaurs!K12*0.8</f>
+        <f>dinosaurs_ori!K12*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R12" s="2">
-        <f>dinosaurs!K12*1.2</f>
+        <f>dinosaurs_ori!K12*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S12" s="2">
-        <f>dinosaurs!L12*0.8</f>
+        <f>dinosaurs_ori!L12*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T12" s="2">
-        <f>dinosaurs!L12*1.2</f>
+        <f>dinosaurs_ori!L12*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U12" s="2">
@@ -2084,67 +2133,67 @@
         <v>51</v>
       </c>
       <c r="E13" s="2">
-        <f>dinosaurs!E13*0.8</f>
-        <v>32</v>
+        <f>dinosaurs_ori!E13*0.8</f>
+        <v>160</v>
       </c>
       <c r="F13" s="2">
-        <f>dinosaurs!F13*0.8</f>
+        <f>dinosaurs_ori!F13*0.8</f>
         <v>12.8</v>
       </c>
       <c r="G13" s="2">
-        <f>dinosaurs!G13*0.8</f>
+        <f>dinosaurs_ori!G13*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H13" s="2">
-        <f>dinosaurs!H13*0.8</f>
+        <f>dinosaurs_ori!H13*0.8</f>
         <v>8</v>
       </c>
       <c r="I13" s="2">
-        <f>dinosaurs!E13*1.2</f>
-        <v>48</v>
+        <f>dinosaurs_ori!E13*1.2</f>
+        <v>240</v>
       </c>
       <c r="J13" s="2">
-        <f>dinosaurs!F13*1.2</f>
+        <f>dinosaurs_ori!F13*1.2</f>
         <v>19.2</v>
       </c>
       <c r="K13" s="2">
-        <f>dinosaurs!G13*1.2</f>
+        <f>dinosaurs_ori!G13*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L13" s="2">
-        <f>dinosaurs!H13*1.2</f>
+        <f>dinosaurs_ori!H13*1.2</f>
         <v>12</v>
       </c>
       <c r="M13" s="2">
-        <f>dinosaurs!I13*0.8</f>
+        <f>dinosaurs_ori!I13*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N13" s="2">
-        <f>dinosaurs!I13*1.2</f>
+        <f>dinosaurs_ori!I13*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O13" s="2">
-        <f>dinosaurs!J13*0.8</f>
+        <f>dinosaurs_ori!J13*0.8</f>
         <v>2.08</v>
       </c>
       <c r="P13" s="2">
-        <f>dinosaurs!J13*1.2</f>
+        <f>dinosaurs_ori!J13*1.2</f>
         <v>3.12</v>
       </c>
       <c r="Q13" s="2">
-        <f>dinosaurs!K13*0.8</f>
+        <f>dinosaurs_ori!K13*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R13" s="2">
-        <f>dinosaurs!K13*1.2</f>
+        <f>dinosaurs_ori!K13*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S13" s="2">
-        <f>dinosaurs!L13*0.8</f>
+        <f>dinosaurs_ori!L13*0.8</f>
         <v>1.6</v>
       </c>
       <c r="T13" s="2">
-        <f>dinosaurs!L13*1.2</f>
+        <f>dinosaurs_ori!L13*1.2</f>
         <v>2.4</v>
       </c>
       <c r="U13" s="2">
@@ -2177,67 +2226,67 @@
         <v>42</v>
       </c>
       <c r="E14" s="2">
-        <f>dinosaurs!E14*0.8</f>
-        <v>32</v>
+        <f>dinosaurs_ori!E14*0.8</f>
+        <v>160</v>
       </c>
       <c r="F14" s="2">
-        <f>dinosaurs!F14*0.8</f>
+        <f>dinosaurs_ori!F14*0.8</f>
         <v>16</v>
       </c>
       <c r="G14" s="2">
-        <f>dinosaurs!G14*0.8</f>
+        <f>dinosaurs_ori!G14*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="H14" s="2">
-        <f>dinosaurs!H14*0.8</f>
+        <f>dinosaurs_ori!H14*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I14" s="2">
-        <f>dinosaurs!E14*1.2</f>
-        <v>48</v>
+        <f>dinosaurs_ori!E14*1.2</f>
+        <v>240</v>
       </c>
       <c r="J14" s="2">
-        <f>dinosaurs!F14*1.2</f>
+        <f>dinosaurs_ori!F14*1.2</f>
         <v>24</v>
       </c>
       <c r="K14" s="2">
-        <f>dinosaurs!G14*1.2</f>
+        <f>dinosaurs_ori!G14*1.2</f>
         <v>16.8</v>
       </c>
       <c r="L14" s="2">
-        <f>dinosaurs!H14*1.2</f>
+        <f>dinosaurs_ori!H14*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M14" s="2">
-        <f>dinosaurs!I14*0.8</f>
+        <f>dinosaurs_ori!I14*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N14" s="2">
-        <f>dinosaurs!I14*1.2</f>
+        <f>dinosaurs_ori!I14*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O14" s="2">
-        <f>dinosaurs!J14*0.8</f>
+        <f>dinosaurs_ori!J14*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P14" s="2">
-        <f>dinosaurs!J14*1.2</f>
+        <f>dinosaurs_ori!J14*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q14" s="2">
-        <f>dinosaurs!K14*0.8</f>
+        <f>dinosaurs_ori!K14*0.8</f>
         <v>1.92</v>
       </c>
       <c r="R14" s="2">
-        <f>dinosaurs!K14*1.2</f>
+        <f>dinosaurs_ori!K14*1.2</f>
         <v>2.88</v>
       </c>
       <c r="S14" s="2">
-        <f>dinosaurs!L14*0.8</f>
+        <f>dinosaurs_ori!L14*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T14" s="2">
-        <f>dinosaurs!L14*1.2</f>
+        <f>dinosaurs_ori!L14*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U14" s="2">
@@ -2270,67 +2319,67 @@
         <v>104</v>
       </c>
       <c r="E15" s="2">
-        <f>dinosaurs!E15*0.8</f>
-        <v>48</v>
+        <f>dinosaurs_ori!E15*0.8</f>
+        <v>240</v>
       </c>
       <c r="F15" s="2">
-        <f>dinosaurs!F15*0.8</f>
+        <f>dinosaurs_ori!F15*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G15" s="2">
-        <f>dinosaurs!G15*0.8</f>
+        <f>dinosaurs_ori!G15*0.8</f>
         <v>16</v>
       </c>
       <c r="H15" s="2">
-        <f>dinosaurs!H15*0.8</f>
+        <f>dinosaurs_ori!H15*0.8</f>
         <v>3.2</v>
       </c>
       <c r="I15" s="2">
-        <f>dinosaurs!E15*1.2</f>
-        <v>72</v>
+        <f>dinosaurs_ori!E15*1.2</f>
+        <v>360</v>
       </c>
       <c r="J15" s="2">
-        <f>dinosaurs!F15*1.2</f>
+        <f>dinosaurs_ori!F15*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K15" s="2">
-        <f>dinosaurs!G15*1.2</f>
+        <f>dinosaurs_ori!G15*1.2</f>
         <v>24</v>
       </c>
       <c r="L15" s="2">
-        <f>dinosaurs!H15*1.2</f>
+        <f>dinosaurs_ori!H15*1.2</f>
         <v>4.8</v>
       </c>
       <c r="M15" s="2">
-        <f>dinosaurs!I15*0.8</f>
+        <f>dinosaurs_ori!I15*0.8</f>
         <v>8</v>
       </c>
       <c r="N15" s="2">
-        <f>dinosaurs!I15*1.2</f>
+        <f>dinosaurs_ori!I15*1.2</f>
         <v>12</v>
       </c>
       <c r="O15" s="2">
-        <f>dinosaurs!J15*0.8</f>
+        <f>dinosaurs_ori!J15*0.8</f>
         <v>1.92</v>
       </c>
       <c r="P15" s="2">
-        <f>dinosaurs!J15*1.2</f>
+        <f>dinosaurs_ori!J15*1.2</f>
         <v>2.88</v>
       </c>
       <c r="Q15" s="2">
-        <f>dinosaurs!K15*0.8</f>
+        <f>dinosaurs_ori!K15*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="R15" s="2">
-        <f>dinosaurs!K15*1.2</f>
+        <f>dinosaurs_ori!K15*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="S15" s="2">
-        <f>dinosaurs!L15*0.8</f>
+        <f>dinosaurs_ori!L15*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T15" s="2">
-        <f>dinosaurs!L15*1.2</f>
+        <f>dinosaurs_ori!L15*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U15" s="2">
@@ -2363,67 +2412,67 @@
         <v>76</v>
       </c>
       <c r="E16" s="2">
-        <f>dinosaurs!E16*0.8</f>
-        <v>32</v>
+        <f>dinosaurs_ori!E16*0.8</f>
+        <v>160</v>
       </c>
       <c r="F16" s="2">
-        <f>dinosaurs!F16*0.8</f>
+        <f>dinosaurs_ori!F16*0.8</f>
         <v>16</v>
       </c>
       <c r="G16" s="2">
-        <f>dinosaurs!G16*0.8</f>
+        <f>dinosaurs_ori!G16*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="H16" s="2">
-        <f>dinosaurs!H16*0.8</f>
+        <f>dinosaurs_ori!H16*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I16" s="2">
-        <f>dinosaurs!E16*1.2</f>
-        <v>48</v>
+        <f>dinosaurs_ori!E16*1.2</f>
+        <v>240</v>
       </c>
       <c r="J16" s="2">
-        <f>dinosaurs!F16*1.2</f>
+        <f>dinosaurs_ori!F16*1.2</f>
         <v>24</v>
       </c>
       <c r="K16" s="2">
-        <f>dinosaurs!G16*1.2</f>
+        <f>dinosaurs_ori!G16*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="L16" s="2">
-        <f>dinosaurs!H16*1.2</f>
+        <f>dinosaurs_ori!H16*1.2</f>
         <v>16.8</v>
       </c>
       <c r="M16" s="2">
-        <f>dinosaurs!I16*0.8</f>
+        <f>dinosaurs_ori!I16*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N16" s="2">
-        <f>dinosaurs!I16*1.2</f>
+        <f>dinosaurs_ori!I16*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O16" s="2">
-        <f>dinosaurs!J16*0.8</f>
+        <f>dinosaurs_ori!J16*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P16" s="2">
-        <f>dinosaurs!J16*1.2</f>
+        <f>dinosaurs_ori!J16*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q16" s="2">
-        <f>dinosaurs!K16*0.8</f>
+        <f>dinosaurs_ori!K16*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="R16" s="2">
-        <f>dinosaurs!K16*1.2</f>
+        <f>dinosaurs_ori!K16*1.2</f>
         <v>2.64</v>
       </c>
       <c r="S16" s="2">
-        <f>dinosaurs!L16*0.8</f>
+        <f>dinosaurs_ori!L16*0.8</f>
         <v>1.92</v>
       </c>
       <c r="T16" s="2">
-        <f>dinosaurs!L16*1.2</f>
+        <f>dinosaurs_ori!L16*1.2</f>
         <v>2.88</v>
       </c>
       <c r="U16" s="2">
@@ -2459,7 +2508,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2527,115 +2576,115 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" s="6" customFormat="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="J2" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>10800</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3600</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3</v>
-      </c>
-      <c r="P2" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3600</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10800</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>7200</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2">
@@ -2651,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -2692,115 +2741,115 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2">
+    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="4">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>14</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>1.6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>1.4</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>21600</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>8</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>7200</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>16</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>12</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>2.4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>2.6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>10800</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>6</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="4">
         <v>2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>3600</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2">
@@ -2816,7 +2865,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2">
         <v>18</v>
@@ -2857,115 +2906,115 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2">
+    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="4">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>18</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>18</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>6</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>1.4</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>2.8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>2.8</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>10800</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>8</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>3600</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="4">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4">
         <v>18</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>20</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>2.8</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>21600</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>6</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="4">
         <v>6</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="4">
         <v>3600</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2">
@@ -2981,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2">
         <v>20</v>
@@ -3034,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="F11" s="2">
         <v>20</v>
@@ -3073,56 +3122,56 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="2">
+    <row r="12" spans="1:20" s="6" customFormat="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="4">
+        <v>150</v>
+      </c>
+      <c r="F12" s="4">
         <v>18</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>18</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>12</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>6</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>2.8</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>2.8</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>86400</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>8</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>1</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="4">
         <v>7200</v>
       </c>
     </row>
@@ -3140,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2">
         <v>16</v>
@@ -3193,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F14" s="2">
         <v>20</v>
@@ -3232,109 +3281,109 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2">
+    <row r="15" spans="1:20" s="6" customFormat="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="4">
+        <v>300</v>
+      </c>
+      <c r="F15" s="4">
         <v>14</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>20</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>10</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>2.4</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <v>1.4</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>172800</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="4">
         <v>12</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="4">
         <v>3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="4">
         <v>10800</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2">
+    <row r="16" spans="1:20" s="6" customFormat="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>11</v>
       </c>
-      <c r="E16" s="2">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="4">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4">
         <v>20</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>12</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>14</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>8</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <v>2.4</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>172800</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="4">
         <v>12</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <v>8</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="4">
         <v>7200</v>
       </c>
     </row>
@@ -3389,6 +3438,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3892,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4463,4 +4513,567 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="6" customFormat="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>10800</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>7200</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="6" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>125</v>
+      </c>
+      <c r="F4" s="4">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>21600</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>7200</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10800</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10800</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="4">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="6" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>21600</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6</v>
+      </c>
+      <c r="P7" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>150</v>
+      </c>
+      <c r="F8" s="4">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M8" s="4">
+        <v>86400</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="4">
+        <v>8</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>172800</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="4">
+        <v>12</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="6" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>172800</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="4">
+        <v>12</v>
+      </c>
+      <c r="P10" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1120" windowWidth="32000" windowHeight="18360" activeTab="5"/>
+    <workbookView xWindow="15700" yWindow="2340" windowWidth="32000" windowHeight="18360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="恐龙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,6 +501,38 @@
   </si>
   <si>
     <t>durian</t>
+  </si>
+  <si>
+    <t>碎骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3942,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4008,7 +4040,9 @@
       <c r="I2" s="2">
         <v>0.15</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
@@ -4033,7 +4067,9 @@
       <c r="I3" s="2">
         <v>0.1</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
@@ -4058,7 +4094,9 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
@@ -4110,7 +4148,9 @@
       <c r="I6" s="2">
         <v>0.15</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
@@ -4135,7 +4175,9 @@
       <c r="I7" s="2">
         <v>0.15</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
@@ -4210,7 +4252,9 @@
       <c r="I10" s="2">
         <v>0.15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
@@ -4235,7 +4279,9 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
@@ -4260,7 +4306,9 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
@@ -4519,7 +4567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="2340" windowWidth="32000" windowHeight="18360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="恐龙" sheetId="1" r:id="rId1"/>
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4567,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F2" s="4">
         <v>12</v>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="恐龙" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="skills" sheetId="2" r:id="rId4"/>
     <sheet name="food" sheetId="5" r:id="rId5"/>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId6"/>
+    <sheet name="skill_avai" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="136">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -519,10 +520,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物理暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地震</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -532,6 +529,34 @@
   </si>
   <si>
     <t>流血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲撞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +614,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -598,7 +632,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -606,8 +640,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,8 +720,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,8 +774,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="34">
+    <cellStyle name="标题" xfId="23" builtinId="15"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -713,6 +791,11 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -724,6 +807,11 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3975,7 +4063,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4041,7 +4129,7 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -4123,7 +4211,9 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
@@ -4202,7 +4292,9 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
@@ -4227,7 +4319,9 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
@@ -4253,7 +4347,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -4280,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -4307,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -4567,7 +4661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5113,6 +5207,313 @@
       </c>
       <c r="Q10" s="4">
         <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="22" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="30340" windowHeight="18180" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="30340" windowHeight="18180"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -646,7 +646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +717,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,7 +837,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="标题" xfId="23" builtinId="15"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -847,6 +859,8 @@
     <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -867,6 +881,8 @@
     <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1166,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1259,7 +1275,7 @@
         <v>114</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3">
         <v>12</v>
@@ -1327,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3">
         <v>14</v>
@@ -1395,7 +1411,7 @@
         <v>115</v>
       </c>
       <c r="E4" s="3">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3">
         <v>16</v>
@@ -1463,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>14</v>
@@ -1531,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F6" s="3">
         <v>14</v>
@@ -1599,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="3">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3">
         <v>18</v>
@@ -1667,7 +1683,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F8" s="3">
         <v>18</v>
@@ -1735,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>14</v>
@@ -1803,7 +1819,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="3">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -1856,6 +1872,33 @@
       <c r="V10" s="3">
         <v>7200</v>
       </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="19:19">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="19:19">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="19:19">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="19:19">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="19:19">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="19:19">
+      <c r="S23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2755,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:Q1"/>
     </sheetView>
   </sheetViews>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="30340" windowHeight="18180"/>
+    <workbookView xWindow="-480" yWindow="180" windowWidth="21720" windowHeight="13620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
     <sheet name="experience" sheetId="4" r:id="rId2"/>
     <sheet name="skill_avai" sheetId="7" r:id="rId3"/>
     <sheet name="dinosaurs_old" sheetId="3" r:id="rId4"/>
+    <sheet name="calc" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -505,6 +507,102 @@
   </si>
   <si>
     <t>自叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒牙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方敏捷-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌方受到伤害提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,5,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6,7,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,7,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,7,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +717,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,10 +941,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="标题" xfId="23" builtinId="15"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -861,29 +974,28 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1182,18 +1294,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="22" max="22" width="14.625" customWidth="1"/>
+    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1379,11 @@
       <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="5" customFormat="1">
+      <c r="W1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1275,10 +1397,10 @@
         <v>114</v>
       </c>
       <c r="E2" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F2" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>6</v>
@@ -1286,17 +1408,17 @@
       <c r="H2" s="3">
         <v>20</v>
       </c>
-      <c r="I2" s="3">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3</v>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12</v>
       </c>
       <c r="M2" s="14">
         <v>1</v>
@@ -1328,8 +1450,14 @@
       <c r="V2" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="5" customFormat="1">
+      <c r="W2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1343,10 +1471,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="F3" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <v>8</v>
@@ -1354,17 +1482,17 @@
       <c r="H3" s="3">
         <v>18</v>
       </c>
-      <c r="I3" s="3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2.4</v>
+      <c r="I3" s="2">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.6</v>
       </c>
       <c r="M3" s="14">
         <v>1</v>
@@ -1396,8 +1524,14 @@
       <c r="V3" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="5" customFormat="1">
+      <c r="W3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1411,10 +1545,10 @@
         <v>115</v>
       </c>
       <c r="E4" s="3">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="F4" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
@@ -1422,17 +1556,17 @@
       <c r="H4" s="3">
         <v>14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="K4" s="2">
         <v>8</v>
       </c>
-      <c r="J4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1.4</v>
+      <c r="L4" s="2">
+        <v>5.6000000000000005</v>
       </c>
       <c r="M4" s="14">
         <v>1</v>
@@ -1464,8 +1598,14 @@
       <c r="V4" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" s="5" customFormat="1">
+      <c r="W4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1479,10 +1619,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F5" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
         <v>16</v>
@@ -1490,17 +1630,17 @@
       <c r="H5" s="3">
         <v>12</v>
       </c>
-      <c r="I5" s="3">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2.2000000000000002</v>
+      <c r="I5" s="2">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.7999999999999989</v>
       </c>
       <c r="M5" s="14">
         <v>1</v>
@@ -1532,8 +1672,14 @@
       <c r="V5" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" s="5" customFormat="1">
+      <c r="W5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1547,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F6" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
         <v>18</v>
@@ -1558,17 +1704,17 @@
       <c r="H6" s="3">
         <v>18</v>
       </c>
-      <c r="I6" s="3">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.8</v>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <v>11.200000000000001</v>
       </c>
       <c r="M6" s="14">
         <v>1</v>
@@ -1600,8 +1746,14 @@
       <c r="V6" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" s="5" customFormat="1">
+      <c r="W6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1615,10 +1767,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="3">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
@@ -1626,17 +1778,17 @@
       <c r="H7" s="3">
         <v>20</v>
       </c>
-      <c r="I7" s="3">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>12</v>
       </c>
       <c r="M7" s="14">
         <v>1</v>
@@ -1668,8 +1820,14 @@
       <c r="V7" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" s="5" customFormat="1">
+      <c r="W7" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1683,28 +1841,28 @@
         <v>19</v>
       </c>
       <c r="E8" s="3">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3">
         <v>18</v>
       </c>
       <c r="H8" s="3">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2.2000000000000002</v>
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11.2</v>
       </c>
       <c r="M8" s="14">
         <v>1</v>
@@ -1736,8 +1894,14 @@
       <c r="V8" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" s="5" customFormat="1">
+      <c r="W8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1751,28 +1915,28 @@
         <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1.4</v>
+      <c r="I9" s="2">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5.6000000000000005</v>
       </c>
       <c r="M9" s="14">
         <v>1</v>
@@ -1804,8 +1968,14 @@
       <c r="V9" s="3">
         <v>10800</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="5" customFormat="1">
+      <c r="W9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1819,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
         <v>12</v>
@@ -1830,17 +2000,17 @@
       <c r="H10" s="3">
         <v>14</v>
       </c>
-      <c r="I10" s="3">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2.4</v>
+      <c r="I10" s="2">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="M10" s="14">
         <v>1</v>
@@ -1872,33 +2042,79 @@
       <c r="V10" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="19:19">
+    <row r="17" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="19:19">
+    <row r="18" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="19:19">
+    <row r="19" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="19:19">
+    <row r="20" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="19:19">
+    <row r="21" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="19:19">
+    <row r="22" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="19:19">
+    <row r="23" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1914,18 +2130,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1933,7 +2149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1941,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1950,7 +2166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1959,7 +2175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1968,7 +2184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1977,7 +2193,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1986,7 +2202,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1995,7 +2211,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2004,7 +2220,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2013,7 +2229,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2022,7 +2238,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2031,7 +2247,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2040,7 +2256,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2049,7 +2265,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2058,7 +2274,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2067,7 +2283,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2076,7 +2292,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2085,7 +2301,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2094,7 +2310,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2103,7 +2319,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2112,7 +2328,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2121,7 +2337,7 @@
         <v>4610</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2130,7 +2346,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2139,7 +2355,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2148,7 +2364,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2157,7 +2373,7 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2166,7 +2382,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2175,7 +2391,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2184,7 +2400,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2193,7 +2409,7 @@
         <v>8690</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2202,7 +2418,7 @@
         <v>9290</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2211,7 +2427,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2220,7 +2436,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2229,7 +2445,7 @@
         <v>11210</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2238,7 +2454,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2247,7 +2463,7 @@
         <v>12590</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2256,7 +2472,7 @@
         <v>13310</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2265,7 +2481,7 @@
         <v>14050</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2274,7 +2490,7 @@
         <v>14810</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2283,7 +2499,7 @@
         <v>15590</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2292,7 +2508,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2301,7 +2517,7 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2310,7 +2526,7 @@
         <v>18050</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2319,7 +2535,7 @@
         <v>18910</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2328,7 +2544,7 @@
         <v>19790</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2337,7 +2553,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2346,7 +2562,7 @@
         <v>21610</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2355,7 +2571,7 @@
         <v>22550</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2364,7 +2580,7 @@
         <v>23510</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2373,7 +2589,7 @@
         <v>24490</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2382,7 +2598,7 @@
         <v>25490</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2391,10 +2607,271 @@
         <v>26510</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" ref="B53:B79" si="2">10*(A52+1)*(A52+1)+10*(A52+1)-10</f>
+        <v>27550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="2"/>
+        <v>28610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="2"/>
+        <v>29690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="2"/>
+        <v>30790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="2"/>
+        <v>31910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="2"/>
+        <v>33050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="2"/>
+        <v>34210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="2"/>
+        <v>35390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="2"/>
+        <v>36590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="2"/>
+        <v>37810</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="2"/>
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="2"/>
+        <v>40310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="2"/>
+        <v>41590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="2"/>
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="2"/>
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
+        <v>46910</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>48290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>49690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>51110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>52550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>54010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>55490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
+        <v>56990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="2"/>
+        <v>58510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="2"/>
+        <v>60050</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="2"/>
+        <v>61610</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" ref="B80:B81" si="3">10*(A79+1)*(A79+1)+10*(A79+1)-10</f>
+        <v>63190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="3"/>
+        <v>64790</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2405,25 +2882,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="22" thickBot="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1">
+    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2490,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2519,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2548,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2580,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2609,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2638,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2667,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2696,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2725,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2754,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2781,6 +3258,124 @@
       </c>
       <c r="K12" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2799,24 +3394,24 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -2884,7 +3479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1">
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2952,7 +3547,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1">
+    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3020,7 +3615,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3088,7 +3683,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1">
+    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3156,7 +3751,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1">
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3224,7 +3819,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3292,7 +3887,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1">
+    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3360,7 +3955,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1">
+    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3428,7 +4023,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3496,7 +4091,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3564,7 +4159,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3632,7 +4227,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3700,7 +4295,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3768,7 +4363,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1">
+    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3836,7 +4431,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1">
+    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3914,4 +4509,494 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1">
+        <f>dinosaurs_avai!E2+dinosaurs_avai!I2*50</f>
+        <v>1300</v>
+      </c>
+      <c r="D1">
+        <f>dinosaurs_avai!F2+dinosaurs_avai!J2*80</f>
+        <v>592</v>
+      </c>
+      <c r="E1">
+        <f>dinosaurs_avai!G2+dinosaurs_avai!K2*80</f>
+        <v>518</v>
+      </c>
+      <c r="F1">
+        <f>dinosaurs_avai!H2+dinosaurs_avai!L2*80</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>dinosaurs_avai!E3+dinosaurs_avai!I3*50</f>
+        <v>1800</v>
+      </c>
+      <c r="D2">
+        <f>dinosaurs_avai!F3+dinosaurs_avai!J3*80</f>
+        <v>850</v>
+      </c>
+      <c r="E2">
+        <f>dinosaurs_avai!G3+dinosaurs_avai!K3*80</f>
+        <v>584</v>
+      </c>
+      <c r="F2">
+        <f>dinosaurs_avai!H3+dinosaurs_avai!L3*80</f>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>dinosaurs_avai!E4+dinosaurs_avai!I4*50</f>
+        <v>2200</v>
+      </c>
+      <c r="D3">
+        <f>dinosaurs_avai!F4+dinosaurs_avai!J4*80</f>
+        <v>698</v>
+      </c>
+      <c r="E3">
+        <f>dinosaurs_avai!G4+dinosaurs_avai!K4*80</f>
+        <v>650</v>
+      </c>
+      <c r="F3">
+        <f>dinosaurs_avai!H4+dinosaurs_avai!L4*80</f>
+        <v>462.00000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <f>dinosaurs_avai!E5+dinosaurs_avai!I5*50</f>
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <f>dinosaurs_avai!F5+dinosaurs_avai!J5*80</f>
+        <v>786</v>
+      </c>
+      <c r="E4">
+        <f>dinosaurs_avai!G5+dinosaurs_avai!K5*80</f>
+        <v>848</v>
+      </c>
+      <c r="F4">
+        <f>dinosaurs_avai!H5+dinosaurs_avai!L5*80</f>
+        <v>715.99999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <f>dinosaurs_avai!E6+dinosaurs_avai!I6*50</f>
+        <v>1800</v>
+      </c>
+      <c r="D5">
+        <f>dinosaurs_avai!F6+dinosaurs_avai!J6*80</f>
+        <v>658</v>
+      </c>
+      <c r="E5">
+        <f>dinosaurs_avai!G6+dinosaurs_avai!K6*80</f>
+        <v>914.00000000000011</v>
+      </c>
+      <c r="F5">
+        <f>dinosaurs_avai!H6+dinosaurs_avai!L6*80</f>
+        <v>914.00000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <f>dinosaurs_avai!E7+dinosaurs_avai!I7*50</f>
+        <v>1900</v>
+      </c>
+      <c r="D6">
+        <f>dinosaurs_avai!F7+dinosaurs_avai!J7*80</f>
+        <v>888</v>
+      </c>
+      <c r="E6">
+        <f>dinosaurs_avai!G7+dinosaurs_avai!K7*80</f>
+        <v>618</v>
+      </c>
+      <c r="F6">
+        <f>dinosaurs_avai!H7+dinosaurs_avai!L7*80</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <f>dinosaurs_avai!E8+dinosaurs_avai!I8*50</f>
+        <v>1800</v>
+      </c>
+      <c r="D7">
+        <f>dinosaurs_avai!F8+dinosaurs_avai!J8*80</f>
+        <v>920.00000000000011</v>
+      </c>
+      <c r="E7">
+        <f>dinosaurs_avai!G8+dinosaurs_avai!K8*80</f>
+        <v>914.00000000000011</v>
+      </c>
+      <c r="F7">
+        <f>dinosaurs_avai!H8+dinosaurs_avai!L8*80</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <f>dinosaurs_avai!E9+dinosaurs_avai!I9*50</f>
+        <v>2900</v>
+      </c>
+      <c r="D8">
+        <f>dinosaurs_avai!F9+dinosaurs_avai!J9*80</f>
+        <v>786</v>
+      </c>
+      <c r="E8">
+        <f>dinosaurs_avai!G9+dinosaurs_avai!K9*80</f>
+        <v>988</v>
+      </c>
+      <c r="F8">
+        <f>dinosaurs_avai!H9+dinosaurs_avai!L9*80</f>
+        <v>452.00000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <f>dinosaurs_avai!E10+dinosaurs_avai!I10*50</f>
+        <v>2300</v>
+      </c>
+      <c r="D9">
+        <f>dinosaurs_avai!F10+dinosaurs_avai!J10*80</f>
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <f>dinosaurs_avai!G10+dinosaurs_avai!K10*80</f>
+        <v>715.99999999999989</v>
+      </c>
+      <c r="F9">
+        <f>dinosaurs_avai!H10+dinosaurs_avai!L10*80</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>136</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J29" si="0">H12*5*(1/(1+I12/G12))</f>
+        <v>191.54929577464787</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>136</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>988</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>604.98220640569389</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>518</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>809.06148867313925</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>136</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>988</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>24.199288256227756</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>136</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>518</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>41.590214067278289</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>136</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>191.54929577464787</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>136</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>165.85365853658539</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>650</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>122.64150943396226</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>26</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>101.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>84.905660377358487</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>188.67924528301884</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G26">
+        <v>136</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>260</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>68.686868686868678</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <v>136</v>
+      </c>
+      <c r="H27">
+        <v>800</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>478.87323943661983</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G28">
+        <v>136</v>
+      </c>
+      <c r="H28">
+        <v>800</v>
+      </c>
+      <c r="I28">
+        <v>600</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>739.13043478260863</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>800</v>
+      </c>
+      <c r="I29">
+        <v>700</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="180" windowWidth="21720" windowHeight="13620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="dinosaurs_old" sheetId="3" r:id="rId4"/>
     <sheet name="calc" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -603,6 +602,18 @@
   </si>
   <si>
     <t>防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅猛龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ripper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +962,6 @@
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="标题" xfId="23" builtinId="15"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -974,28 +984,29 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,23 +1307,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="20.5" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="22" max="22" width="14.625" customWidth="1"/>
-    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="5" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1457,7 +1468,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="5" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1531,7 +1542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="5" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="5" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1679,15 +1690,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="5" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -1753,7 +1764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="5" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1827,15 +1838,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="5" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -1901,7 +1912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="5" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="5" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2049,68 +2060,68 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:19">
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:19">
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:19">
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:19">
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:19">
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:19">
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:19">
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:19">
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:19">
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2136,12 +2147,12 @@
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="1" max="2" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2184,7 +2195,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2202,7 +2213,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2238,7 +2249,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2283,7 +2294,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2337,7 +2348,7 @@
         <v>4610</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2355,7 +2366,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2409,7 +2420,7 @@
         <v>8690</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>9290</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2427,7 +2438,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2436,7 +2447,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2445,7 +2456,7 @@
         <v>11210</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>12590</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>13310</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2481,7 +2492,7 @@
         <v>14050</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>14810</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2499,7 +2510,7 @@
         <v>15590</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>18050</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>18910</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>19790</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2553,7 +2564,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>21610</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2571,7 +2582,7 @@
         <v>22550</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>23510</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>24490</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>25490</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>26510</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2616,7 +2627,7 @@
         <v>27550</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2625,7 +2636,7 @@
         <v>28610</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>29690</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2643,7 +2654,7 @@
         <v>30790</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>31910</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>33050</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>34210</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>36590</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2697,7 +2708,7 @@
         <v>37810</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>46910</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2769,7 +2780,7 @@
         <v>48290</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>49690</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>51110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>52550</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>54010</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>55490</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>56990</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>58510</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2841,7 +2852,7 @@
         <v>60050</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2850,7 +2861,7 @@
         <v>61610</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2859,7 +2870,7 @@
         <v>63190</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2871,7 +2882,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2888,19 +2899,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="22" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15" thickTop="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3057,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3144,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3260,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3312,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3338,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3361,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3394,24 +3405,24 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -3479,7 +3490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3547,7 +3558,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3615,7 +3626,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3683,7 +3694,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="5" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3955,7 +3966,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="5" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4159,7 +4170,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="5" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4363,7 +4374,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="5" customFormat="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4431,7 +4442,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="5" customFormat="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4515,13 +4526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11">
       <c r="B1" s="3" t="s">
         <v>112</v>
       </c>
@@ -4542,7 +4553,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4563,7 +4574,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -4584,7 +4595,7 @@
         <v>462.00000000000006</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
         <v>117</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v>715.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -4626,7 +4637,7 @@
         <v>914.00000000000011</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
@@ -4647,7 +4658,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4700,7 @@
         <v>452.00000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="H11" t="s">
         <v>143</v>
       </c>
@@ -4724,7 +4735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11">
       <c r="G12">
         <v>136</v>
       </c>
@@ -4739,7 +4750,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="G13">
         <v>100</v>
       </c>
@@ -4754,7 +4765,7 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11">
       <c r="G14">
         <v>136</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>604.98220640569389</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11">
       <c r="G15">
         <v>100</v>
       </c>
@@ -4784,7 +4795,7 @@
         <v>809.06148867313925</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11">
       <c r="G16">
         <v>136</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>24.199288256227756</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>136</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>41.590214067278289</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:10">
       <c r="G18">
         <v>136</v>
       </c>
@@ -4829,7 +4840,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>136</v>
       </c>
@@ -4844,7 +4855,7 @@
         <v>165.85365853658539</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>100</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>100</v>
       </c>
@@ -4874,7 +4885,7 @@
         <v>122.64150943396226</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:10">
       <c r="G22">
         <v>100</v>
       </c>
@@ -4889,7 +4900,7 @@
         <v>101.5625</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:10">
       <c r="G23">
         <v>100</v>
       </c>
@@ -4904,7 +4915,7 @@
         <v>84.905660377358487</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:10">
       <c r="G24">
         <v>100</v>
       </c>
@@ -4919,7 +4930,7 @@
         <v>70.3125</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:10">
       <c r="G25">
         <v>100</v>
       </c>
@@ -4934,7 +4945,7 @@
         <v>188.67924528301884</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:10">
       <c r="G26">
         <v>136</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>68.686868686868678</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:10">
       <c r="G27">
         <v>136</v>
       </c>
@@ -4964,7 +4975,7 @@
         <v>478.87323943661983</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:10">
       <c r="G28">
         <v>136</v>
       </c>
@@ -4979,7 +4990,7 @@
         <v>739.13043478260863</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:10">
       <c r="G29">
         <v>100</v>
       </c>
@@ -4997,6 +5008,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1456,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="U2" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V2" s="3">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>137</v>
@@ -1533,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="V3" s="3">
-        <v>7200</v>
+        <v>1300</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>131</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="3">
-        <v>7200</v>
+        <v>1400</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>140</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>139</v>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="3">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>133</v>
@@ -1826,10 +1826,10 @@
         <v>6</v>
       </c>
       <c r="U7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" s="3">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>134</v>
@@ -1900,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V8" s="3">
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>138</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="V9" s="3">
-        <v>10800</v>
+        <v>1900</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>135</v>
@@ -2051,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="V10" s="3">
-        <v>7200</v>
+        <v>2000</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>136</v>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="dinosaurs_old" sheetId="3" r:id="rId4"/>
     <sheet name="calc" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,111 +365,257 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恐怖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nickname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend_org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility_org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>great</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunger_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窃蛋龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑角龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒牙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方敏捷-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌方受到伤害提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,5,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,7,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6,7,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,7,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,7,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击</t>
+  </si>
+  <si>
+    <t>恐惧</t>
   </si>
   <si>
     <t>流血</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲撞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发几率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nickname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend_org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>agility_org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>agility+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>good</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>great</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>legend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunger_time</t>
+    <t>Growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -481,139 +627,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>watermelon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>剑角龙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>永久性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自叠加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌中毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方敏捷-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖刺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咆哮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌方受到伤害提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,5,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸王龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,6,8,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,6,8,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,5,7,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6,8,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4,8,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,6,7,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,5,7,8,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,7,8,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>迅猛龙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Raptor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ripper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,6 +693,7 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1308,7 +1331,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1361,19 +1384,19 @@
         <v>75</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>4</v>
@@ -1391,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1">
@@ -1399,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -1456,16 +1479,16 @@
         <v>3</v>
       </c>
       <c r="U2" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V2" s="3">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1">
@@ -1533,10 +1556,10 @@
         <v>6</v>
       </c>
       <c r="V3" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>9</v>
@@ -1553,7 +1576,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3">
         <v>400</v>
@@ -1607,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="V4" s="3">
-        <v>1400</v>
+        <v>7200</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>17</v>
@@ -1621,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -1681,13 +1704,13 @@
         <v>4</v>
       </c>
       <c r="V5" s="3">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -1698,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -1755,10 +1778,10 @@
         <v>2</v>
       </c>
       <c r="V6" s="3">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>43</v>
@@ -1826,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="U7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7" s="3">
-        <v>1700</v>
+        <v>3600</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>32</v>
@@ -1843,10 +1866,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -1900,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>41</v>
@@ -1977,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="V9" s="3">
-        <v>1900</v>
+        <v>10800</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>47</v>
@@ -2051,13 +2074,13 @@
         <v>8</v>
       </c>
       <c r="V10" s="3">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2141,34 +2164,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2176,8 +2224,22 @@
         <f t="shared" ref="B3:B34" si="0">10*(A2+1)*(A2+1)+10*(A2+1)-10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2185,8 +2247,22 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2194,8 +2270,22 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="2">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2203,8 +2293,22 @@
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="2">
+        <v>400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2212,8 +2316,22 @@
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2221,8 +2339,22 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="2">
+        <v>600</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2230,8 +2362,22 @@
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="2">
+        <v>700</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2239,8 +2385,22 @@
         <f t="shared" si="0"/>
         <v>890</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="2">
+        <v>800</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2248,8 +2408,22 @@
         <f t="shared" si="0"/>
         <v>1090</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="2">
+        <v>900</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2257,8 +2431,22 @@
         <f t="shared" si="0"/>
         <v>1310</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2266,8 +2454,22 @@
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2275,8 +2477,22 @@
         <f t="shared" si="0"/>
         <v>1810</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2284,8 +2500,22 @@
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2293,8 +2523,22 @@
         <f t="shared" si="0"/>
         <v>2390</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2302,8 +2546,22 @@
         <f t="shared" si="0"/>
         <v>2710</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2311,8 +2569,22 @@
         <f t="shared" si="0"/>
         <v>3050</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2320,8 +2592,22 @@
         <f t="shared" si="0"/>
         <v>3410</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2329,8 +2615,22 @@
         <f t="shared" si="0"/>
         <v>3790</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2338,8 +2638,22 @@
         <f t="shared" si="0"/>
         <v>4190</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2347,8 +2661,22 @@
         <f t="shared" si="0"/>
         <v>4610</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2356,8 +2684,22 @@
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2365,8 +2707,22 @@
         <f t="shared" si="0"/>
         <v>5510</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2374,8 +2730,22 @@
         <f t="shared" si="0"/>
         <v>5990</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2383,8 +2753,22 @@
         <f t="shared" si="0"/>
         <v>6490</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2392,8 +2776,22 @@
         <f t="shared" si="0"/>
         <v>7010</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2401,8 +2799,22 @@
         <f t="shared" si="0"/>
         <v>7550</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2410,8 +2822,22 @@
         <f t="shared" si="0"/>
         <v>8110</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D29" s="2">
+        <v>27000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2419,8 +2845,22 @@
         <f t="shared" si="0"/>
         <v>8690</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D30" s="2">
+        <v>28000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2428,8 +2868,22 @@
         <f t="shared" si="0"/>
         <v>9290</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2437,8 +2891,22 @@
         <f t="shared" si="0"/>
         <v>9910</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2446,8 +2914,22 @@
         <f t="shared" si="0"/>
         <v>10550</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2455,8 +2937,22 @@
         <f t="shared" si="0"/>
         <v>11210</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2464,8 +2960,22 @@
         <f t="shared" ref="B35:B52" si="1">10*(A34+1)*(A34+1)+10*(A34+1)-10</f>
         <v>11890</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="2">
+        <v>3300</v>
+      </c>
+      <c r="D35" s="2">
+        <v>33000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2473,8 +2983,22 @@
         <f t="shared" si="1"/>
         <v>12590</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D36" s="2">
+        <v>34000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2482,8 +3006,22 @@
         <f t="shared" si="1"/>
         <v>13310</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>35000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2491,8 +3029,22 @@
         <f t="shared" si="1"/>
         <v>14050</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="2">
+        <v>3600</v>
+      </c>
+      <c r="D38" s="2">
+        <v>36000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2500,8 +3052,22 @@
         <f t="shared" si="1"/>
         <v>14810</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="2">
+        <v>3700</v>
+      </c>
+      <c r="D39" s="2">
+        <v>37000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2509,8 +3075,22 @@
         <f t="shared" si="1"/>
         <v>15590</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2518,8 +3098,22 @@
         <f t="shared" si="1"/>
         <v>16390</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="2">
+        <v>3900</v>
+      </c>
+      <c r="D41" s="2">
+        <v>39000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2527,8 +3121,22 @@
         <f t="shared" si="1"/>
         <v>17210</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2536,8 +3144,22 @@
         <f t="shared" si="1"/>
         <v>18050</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2545,8 +3167,22 @@
         <f t="shared" si="1"/>
         <v>18910</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="2">
+        <v>4200</v>
+      </c>
+      <c r="D44" s="2">
+        <v>42000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2554,8 +3190,22 @@
         <f t="shared" si="1"/>
         <v>19790</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2563,8 +3213,22 @@
         <f t="shared" si="1"/>
         <v>20690</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2572,8 +3236,22 @@
         <f t="shared" si="1"/>
         <v>21610</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2581,8 +3259,22 @@
         <f t="shared" si="1"/>
         <v>22550</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="2">
+        <v>4600</v>
+      </c>
+      <c r="D48" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2590,8 +3282,22 @@
         <f t="shared" si="1"/>
         <v>23510</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D49" s="2">
+        <v>47000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2599,8 +3305,22 @@
         <f t="shared" si="1"/>
         <v>24490</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="2">
+        <v>4800</v>
+      </c>
+      <c r="D50" s="2">
+        <v>48000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2608,8 +3328,22 @@
         <f t="shared" si="1"/>
         <v>25490</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="2">
+        <v>4900</v>
+      </c>
+      <c r="D51" s="2">
+        <v>49000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2617,8 +3351,22 @@
         <f t="shared" si="1"/>
         <v>26510</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2626,8 +3374,22 @@
         <f t="shared" ref="B53:B79" si="2">10*(A52+1)*(A52+1)+10*(A52+1)-10</f>
         <v>27550</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="2">
+        <v>5100</v>
+      </c>
+      <c r="D53" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2635,8 +3397,22 @@
         <f t="shared" si="2"/>
         <v>28610</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="2">
+        <v>5200</v>
+      </c>
+      <c r="D54" s="2">
+        <v>52000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2644,8 +3420,22 @@
         <f t="shared" si="2"/>
         <v>29690</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="2">
+        <v>5300</v>
+      </c>
+      <c r="D55" s="2">
+        <v>53000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2653,8 +3443,22 @@
         <f t="shared" si="2"/>
         <v>30790</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="2">
+        <v>5400</v>
+      </c>
+      <c r="D56" s="2">
+        <v>54000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2662,8 +3466,22 @@
         <f t="shared" si="2"/>
         <v>31910</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D57" s="2">
+        <v>55000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2671,8 +3489,22 @@
         <f t="shared" si="2"/>
         <v>33050</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="2">
+        <v>5600</v>
+      </c>
+      <c r="D58" s="2">
+        <v>56000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2680,8 +3512,22 @@
         <f t="shared" si="2"/>
         <v>34210</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="2">
+        <v>5700</v>
+      </c>
+      <c r="D59" s="2">
+        <v>57000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2689,8 +3535,22 @@
         <f t="shared" si="2"/>
         <v>35390</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="2">
+        <v>5800</v>
+      </c>
+      <c r="D60" s="2">
+        <v>58000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2698,8 +3558,22 @@
         <f t="shared" si="2"/>
         <v>36590</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="2">
+        <v>5900</v>
+      </c>
+      <c r="D61" s="2">
+        <v>59000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2707,8 +3581,22 @@
         <f t="shared" si="2"/>
         <v>37810</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D62" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2716,8 +3604,22 @@
         <f t="shared" si="2"/>
         <v>39050</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D63" s="2">
+        <v>61000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2725,8 +3627,22 @@
         <f t="shared" si="2"/>
         <v>40310</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D64" s="2">
+        <v>62000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2734,8 +3650,22 @@
         <f t="shared" si="2"/>
         <v>41590</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="2">
+        <v>6300</v>
+      </c>
+      <c r="D65" s="2">
+        <v>63000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2743,8 +3673,22 @@
         <f t="shared" si="2"/>
         <v>42890</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="2">
+        <v>6400</v>
+      </c>
+      <c r="D66" s="2">
+        <v>64000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2752,8 +3696,22 @@
         <f t="shared" si="2"/>
         <v>44210</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="2">
+        <v>6500</v>
+      </c>
+      <c r="D67" s="2">
+        <v>65000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2761,8 +3719,22 @@
         <f t="shared" si="2"/>
         <v>45550</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="2">
+        <v>6600</v>
+      </c>
+      <c r="D68" s="2">
+        <v>66000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2770,8 +3742,22 @@
         <f t="shared" si="2"/>
         <v>46910</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D69" s="2">
+        <v>67000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2779,8 +3765,22 @@
         <f t="shared" si="2"/>
         <v>48290</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="2">
+        <v>6800</v>
+      </c>
+      <c r="D70" s="2">
+        <v>68000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2788,8 +3788,22 @@
         <f t="shared" si="2"/>
         <v>49690</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D71" s="2">
+        <v>69000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2797,8 +3811,22 @@
         <f t="shared" si="2"/>
         <v>51110</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D72" s="2">
+        <v>70000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2806,8 +3834,22 @@
         <f t="shared" si="2"/>
         <v>52550</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="2">
+        <v>7100</v>
+      </c>
+      <c r="D73" s="2">
+        <v>71000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2815,8 +3857,22 @@
         <f t="shared" si="2"/>
         <v>54010</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="2">
+        <v>7200</v>
+      </c>
+      <c r="D74" s="2">
+        <v>72000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2824,8 +3880,22 @@
         <f t="shared" si="2"/>
         <v>55490</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="2">
+        <v>7300</v>
+      </c>
+      <c r="D75" s="2">
+        <v>73000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2833,8 +3903,22 @@
         <f t="shared" si="2"/>
         <v>56990</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="2">
+        <v>7400</v>
+      </c>
+      <c r="D76" s="2">
+        <v>74000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2842,8 +3926,22 @@
         <f t="shared" si="2"/>
         <v>58510</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D77" s="2">
+        <v>75000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2851,8 +3949,22 @@
         <f t="shared" si="2"/>
         <v>60050</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="2">
+        <v>7600</v>
+      </c>
+      <c r="D78" s="2">
+        <v>76000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2860,17 +3972,45 @@
         <f t="shared" si="2"/>
         <v>61610</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D79" s="2">
+        <v>77000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:B81" si="3">10*(A79+1)*(A79+1)+10*(A79+1)-10</f>
+        <f t="shared" ref="B80:B82" si="3">10*(A79+1)*(A79+1)+10*(A79+1)-10</f>
         <v>63190</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="2">
+        <v>7800</v>
+      </c>
+      <c r="D80" s="2">
+        <v>78000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2878,6 +4018,43 @@
         <f t="shared" si="3"/>
         <v>64790</v>
       </c>
+      <c r="C81" s="2">
+        <v>7900</v>
+      </c>
+      <c r="D81" s="2">
+        <v>79000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="3"/>
+        <v>66410</v>
+      </c>
+      <c r="C82" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D82" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2896,7 +4073,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2919,13 +4096,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>54</v>
@@ -2937,16 +4114,16 @@
         <v>53</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1">
@@ -2957,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3044,7 +4221,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3134,7 +4311,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3163,7 +4340,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -3192,7 +4369,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -3250,7 +4427,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -3276,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -3288,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -3302,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -3314,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -3328,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -3340,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -3354,7 +4531,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -3366,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3377,7 +4554,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -3405,7 +4582,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3424,70 +4601,70 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
@@ -3495,13 +4672,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
@@ -3705,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3">
         <v>25</v>
@@ -3756,7 +4933,7 @@
         <v>8</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V5" s="3">
         <v>7200</v>
@@ -3767,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -4534,7 +5711,7 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1">
         <f>dinosaurs_avai!E2+dinosaurs_avai!I2*50</f>
@@ -4597,7 +5774,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <f>dinosaurs_avai!E5+dinosaurs_avai!I5*50</f>
@@ -4723,16 +5900,16 @@
     </row>
     <row r="11" spans="2:11">
       <c r="H11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:11">

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -985,6 +985,7 @@
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="标题" xfId="23" builtinId="15"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1007,29 +1008,28 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,23 +1330,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="17" max="17" width="20.5" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.625" customWidth="1"/>
+    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1">
+    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1">
+    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1">
+    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1">
+    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1">
+    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1">
+    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1">
+    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2083,68 +2083,68 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="9:19">
+    <row r="17" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="9:19">
+    <row r="18" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="9:19">
+    <row r="19" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="9:19">
+    <row r="20" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="9:19">
+    <row r="21" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="9:19">
+    <row r="22" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="9:19">
+    <row r="23" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="9:19">
+    <row r="24" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="9:19">
+    <row r="25" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2166,17 +2166,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2231,15 +2231,15 @@
         <v>1000</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2254,15 +2254,15 @@
         <v>2000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2277,15 +2277,15 @@
         <v>3000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2300,15 +2300,15 @@
         <v>4000</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2323,15 +2323,15 @@
         <v>5000</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2346,15 +2346,15 @@
         <v>6000</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2369,15 +2369,15 @@
         <v>7000</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2392,15 +2392,15 @@
         <v>8000</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2415,15 +2415,15 @@
         <v>9000</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2438,15 +2438,15 @@
         <v>10000</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2461,15 +2461,15 @@
         <v>11000</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2484,15 +2484,15 @@
         <v>12000</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2507,15 +2507,15 @@
         <v>13000</v>
       </c>
       <c r="E15" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2530,15 +2530,15 @@
         <v>14000</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2553,15 +2553,15 @@
         <v>15000</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2576,15 +2576,15 @@
         <v>16000</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2599,15 +2599,15 @@
         <v>17000</v>
       </c>
       <c r="E19" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2622,15 +2622,15 @@
         <v>18000</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2645,15 +2645,15 @@
         <v>19000</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2668,15 +2668,15 @@
         <v>20000</v>
       </c>
       <c r="E22" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2691,15 +2691,15 @@
         <v>21000</v>
       </c>
       <c r="E23" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2714,15 +2714,15 @@
         <v>22000</v>
       </c>
       <c r="E24" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F24" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2737,15 +2737,15 @@
         <v>23000</v>
       </c>
       <c r="E25" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2760,15 +2760,15 @@
         <v>24000</v>
       </c>
       <c r="E26" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2783,15 +2783,15 @@
         <v>25000</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F27" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2806,15 +2806,15 @@
         <v>26000</v>
       </c>
       <c r="E28" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F28" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2829,15 +2829,15 @@
         <v>27000</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F29" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2852,15 +2852,15 @@
         <v>28000</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2875,15 +2875,15 @@
         <v>29000</v>
       </c>
       <c r="E31" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F31" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2898,15 +2898,15 @@
         <v>30000</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F32" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2921,15 +2921,15 @@
         <v>31000</v>
       </c>
       <c r="E33" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F33" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2944,15 +2944,15 @@
         <v>32000</v>
       </c>
       <c r="E34" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F34" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2967,15 +2967,15 @@
         <v>33000</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F35" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2990,15 +2990,15 @@
         <v>34000</v>
       </c>
       <c r="E36" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F36" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3013,15 +3013,15 @@
         <v>35000</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F37" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3036,15 +3036,15 @@
         <v>36000</v>
       </c>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F38" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3059,15 +3059,15 @@
         <v>37000</v>
       </c>
       <c r="E39" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F39" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3082,15 +3082,15 @@
         <v>38000</v>
       </c>
       <c r="E40" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F40" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3105,15 +3105,15 @@
         <v>39000</v>
       </c>
       <c r="E41" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F41" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3128,15 +3128,15 @@
         <v>40000</v>
       </c>
       <c r="E42" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F42" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3151,15 +3151,15 @@
         <v>41000</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F43" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3174,15 +3174,15 @@
         <v>42000</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F44" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3197,15 +3197,15 @@
         <v>43000</v>
       </c>
       <c r="E45" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F45" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3220,15 +3220,15 @@
         <v>44000</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F46" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3243,15 +3243,15 @@
         <v>45000</v>
       </c>
       <c r="E47" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F47" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3266,15 +3266,15 @@
         <v>46000</v>
       </c>
       <c r="E48" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F48" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3289,15 +3289,15 @@
         <v>47000</v>
       </c>
       <c r="E49" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F49" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3312,15 +3312,15 @@
         <v>48000</v>
       </c>
       <c r="E50" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F50" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3335,15 +3335,15 @@
         <v>49000</v>
       </c>
       <c r="E51" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F51" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3358,15 +3358,15 @@
         <v>50000</v>
       </c>
       <c r="E52" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F52" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3381,15 +3381,15 @@
         <v>51000</v>
       </c>
       <c r="E53" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F53" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3404,15 +3404,15 @@
         <v>52000</v>
       </c>
       <c r="E54" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F54" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3427,15 +3427,15 @@
         <v>53000</v>
       </c>
       <c r="E55" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F55" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3450,15 +3450,15 @@
         <v>54000</v>
       </c>
       <c r="E56" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F56" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3473,15 +3473,15 @@
         <v>55000</v>
       </c>
       <c r="E57" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F57" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3496,15 +3496,15 @@
         <v>56000</v>
       </c>
       <c r="E58" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F58" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3519,15 +3519,15 @@
         <v>57000</v>
       </c>
       <c r="E59" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F59" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3542,15 +3542,15 @@
         <v>58000</v>
       </c>
       <c r="E60" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F60" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3565,15 +3565,15 @@
         <v>59000</v>
       </c>
       <c r="E61" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F61" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3588,15 +3588,15 @@
         <v>60000</v>
       </c>
       <c r="E62" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F62" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3611,15 +3611,15 @@
         <v>61000</v>
       </c>
       <c r="E63" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F63" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3634,15 +3634,15 @@
         <v>62000</v>
       </c>
       <c r="E64" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F64" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3657,15 +3657,15 @@
         <v>63000</v>
       </c>
       <c r="E65" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F65" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3680,15 +3680,15 @@
         <v>64000</v>
       </c>
       <c r="E66" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F66" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3703,15 +3703,15 @@
         <v>65000</v>
       </c>
       <c r="E67" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F67" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3726,15 +3726,15 @@
         <v>66000</v>
       </c>
       <c r="E68" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F68" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3749,15 +3749,15 @@
         <v>67000</v>
       </c>
       <c r="E69" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F69" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3772,15 +3772,15 @@
         <v>68000</v>
       </c>
       <c r="E70" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F70" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3795,15 +3795,15 @@
         <v>69000</v>
       </c>
       <c r="E71" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F71" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3818,15 +3818,15 @@
         <v>70000</v>
       </c>
       <c r="E72" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F72" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3841,15 +3841,15 @@
         <v>71000</v>
       </c>
       <c r="E73" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F73" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3864,15 +3864,15 @@
         <v>72000</v>
       </c>
       <c r="E74" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F74" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3887,15 +3887,15 @@
         <v>73000</v>
       </c>
       <c r="E75" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F75" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3910,15 +3910,15 @@
         <v>74000</v>
       </c>
       <c r="E76" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F76" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3933,15 +3933,15 @@
         <v>75000</v>
       </c>
       <c r="E77" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F77" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3956,15 +3956,15 @@
         <v>76000</v>
       </c>
       <c r="E78" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3979,15 +3979,15 @@
         <v>77000</v>
       </c>
       <c r="E79" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F79" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4002,15 +4002,15 @@
         <v>78000</v>
       </c>
       <c r="E80" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F80" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4025,15 +4025,15 @@
         <v>79000</v>
       </c>
       <c r="E81" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F81" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4048,10 +4048,10 @@
         <v>80000</v>
       </c>
       <c r="E82" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F82" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -4073,22 +4073,22 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="22" thickBot="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1">
+    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4585,21 +4585,21 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1">
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1">
+    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1">
+    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1">
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1">
+    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1">
+    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1">
+    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1">
+    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5707,9 +5707,9 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>109</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>462.00000000000006</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>715.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>914.00000000000011</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>452.00000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="H11" t="s">
         <v>140</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G12">
         <v>136</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G13">
         <v>100</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G14">
         <v>136</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>604.98220640569389</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G15">
         <v>100</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>809.06148867313925</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G16">
         <v>136</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>24.199288256227756</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G17">
         <v>136</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>41.590214067278289</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G18">
         <v>136</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G19">
         <v>136</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>165.85365853658539</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G20">
         <v>100</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G21">
         <v>100</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>122.64150943396226</v>
       </c>
     </row>
-    <row r="22" spans="7:10">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G22">
         <v>100</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>101.5625</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G23">
         <v>100</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>84.905660377358487</v>
       </c>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G24">
         <v>100</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>70.3125</v>
       </c>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G25">
         <v>100</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>188.67924528301884</v>
       </c>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G26">
         <v>136</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>68.686868686868678</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G27">
         <v>136</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>478.87323943661983</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G28">
         <v>136</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>739.13043478260863</v>
       </c>
     </row>
-    <row r="29" spans="7:10">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G29">
         <v>100</v>
       </c>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12940"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="dinosaurs_old" sheetId="3" r:id="rId4"/>
     <sheet name="calc" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -985,7 +985,6 @@
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="标题" xfId="23" builtinId="15"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1008,28 +1007,29 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,23 +1330,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="20.5" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="22" max="22" width="14.625" customWidth="1"/>
-    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="5" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="5" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="5" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="5" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="5" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="5" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="5" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V8" s="3">
         <v>7200</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="5" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="5" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2083,68 +2083,68 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:19">
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:19">
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:19">
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:19">
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:19">
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:19">
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:19">
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:19">
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="9:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:19">
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2166,17 +2166,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4076,19 +4076,19 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="22" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15" thickTop="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4585,21 +4585,21 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="5" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="5" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="5" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="5" customFormat="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="5" customFormat="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5707,9 +5707,9 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11">
       <c r="B1" s="3" t="s">
         <v>109</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>462.00000000000006</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>715.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>914.00000000000011</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>452.00000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="H11" t="s">
         <v>140</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11">
       <c r="G12">
         <v>136</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="G13">
         <v>100</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11">
       <c r="G14">
         <v>136</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>604.98220640569389</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11">
       <c r="G15">
         <v>100</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>809.06148867313925</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11">
       <c r="G16">
         <v>136</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>24.199288256227756</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>136</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>41.590214067278289</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:10">
       <c r="G18">
         <v>136</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>191.54929577464787</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>136</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>165.85365853658539</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>100</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>100</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>122.64150943396226</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:10">
       <c r="G22">
         <v>100</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>101.5625</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:10">
       <c r="G23">
         <v>100</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>84.905660377358487</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:10">
       <c r="G24">
         <v>100</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>70.3125</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:10">
       <c r="G25">
         <v>100</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>188.67924528301884</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:10">
       <c r="G26">
         <v>136</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>68.686868686868678</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:10">
       <c r="G27">
         <v>136</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>478.87323943661983</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:10">
       <c r="G28">
         <v>136</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>739.13043478260863</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:10">
       <c r="G29">
         <v>100</v>
       </c>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12940"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="26360" windowHeight="16340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -636,6 +636,10 @@
   </si>
   <si>
     <t>Raptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_growth</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2166,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2195,6 +2199,9 @@
       <c r="F1" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
@@ -2213,6 +2220,9 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2236,7 +2246,10 @@
       <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <f>C3*2</f>
+        <v>200</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
@@ -2259,7 +2272,10 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G11" si="1">C4*2</f>
+        <v>400</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
@@ -2282,7 +2298,10 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
@@ -2305,7 +2324,10 @@
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -2328,7 +2350,10 @@
       <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
@@ -2351,7 +2376,10 @@
       <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
@@ -2374,7 +2402,10 @@
       <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
@@ -2397,7 +2428,10 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -2420,7 +2454,10 @@
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
@@ -2443,7 +2480,10 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <f>C12*10</f>
+        <v>10000</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
@@ -2466,7 +2506,10 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G76" si="2">C13*10</f>
+        <v>11000</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
@@ -2489,7 +2532,10 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
@@ -2512,7 +2558,10 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
@@ -2535,7 +2584,10 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
@@ -2558,7 +2610,10 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
@@ -2581,7 +2636,10 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
@@ -2604,7 +2662,10 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
@@ -2627,7 +2688,10 @@
       <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
@@ -2650,7 +2714,10 @@
       <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
@@ -2673,7 +2740,10 @@
       <c r="F22" s="2">
         <v>3</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
@@ -2696,7 +2766,10 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>21000</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
@@ -2719,7 +2792,10 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
@@ -2742,7 +2818,10 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>23000</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
@@ -2765,7 +2844,10 @@
       <c r="F26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
@@ -2788,7 +2870,10 @@
       <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
@@ -2811,7 +2896,10 @@
       <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
@@ -2834,7 +2922,10 @@
       <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>27000</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
@@ -2857,7 +2948,10 @@
       <c r="F30" s="2">
         <v>3</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
@@ -2880,7 +2974,10 @@
       <c r="F31" s="2">
         <v>3</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>29000</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
@@ -2903,7 +3000,10 @@
       <c r="F32" s="2">
         <v>3</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
@@ -2926,7 +3026,10 @@
       <c r="F33" s="2">
         <v>3</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>31000</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
@@ -2949,7 +3052,10 @@
       <c r="F34" s="2">
         <v>3</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
@@ -2957,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:B52" si="1">10*(A34+1)*(A34+1)+10*(A34+1)-10</f>
+        <f t="shared" ref="B35:B52" si="3">10*(A34+1)*(A34+1)+10*(A34+1)-10</f>
         <v>11890</v>
       </c>
       <c r="C35" s="2">
@@ -2972,7 +3078,10 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
@@ -2980,7 +3089,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12590</v>
       </c>
       <c r="C36" s="2">
@@ -2995,7 +3104,10 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>34000</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
@@ -3003,7 +3115,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13310</v>
       </c>
       <c r="C37" s="2">
@@ -3018,7 +3130,10 @@
       <c r="F37" s="2">
         <v>3</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
@@ -3026,7 +3141,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14050</v>
       </c>
       <c r="C38" s="2">
@@ -3041,7 +3156,10 @@
       <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
@@ -3049,7 +3167,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14810</v>
       </c>
       <c r="C39" s="2">
@@ -3064,7 +3182,10 @@
       <c r="F39" s="2">
         <v>3</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>37000</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
@@ -3072,7 +3193,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15590</v>
       </c>
       <c r="C40" s="2">
@@ -3087,7 +3208,10 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>38000</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
@@ -3095,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16390</v>
       </c>
       <c r="C41" s="2">
@@ -3110,7 +3234,10 @@
       <c r="F41" s="2">
         <v>3</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
@@ -3118,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17210</v>
       </c>
       <c r="C42" s="2">
@@ -3133,7 +3260,10 @@
       <c r="F42" s="2">
         <v>3</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8">
@@ -3141,7 +3271,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18050</v>
       </c>
       <c r="C43" s="2">
@@ -3156,7 +3286,10 @@
       <c r="F43" s="2">
         <v>3</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>41000</v>
+      </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
@@ -3164,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18910</v>
       </c>
       <c r="C44" s="2">
@@ -3179,7 +3312,10 @@
       <c r="F44" s="2">
         <v>3</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
@@ -3187,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19790</v>
       </c>
       <c r="C45" s="2">
@@ -3202,7 +3338,10 @@
       <c r="F45" s="2">
         <v>3</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>43000</v>
+      </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
@@ -3210,7 +3349,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20690</v>
       </c>
       <c r="C46" s="2">
@@ -3225,7 +3364,10 @@
       <c r="F46" s="2">
         <v>3</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
@@ -3233,7 +3375,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21610</v>
       </c>
       <c r="C47" s="2">
@@ -3248,7 +3390,10 @@
       <c r="F47" s="2">
         <v>3</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
@@ -3256,7 +3401,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22550</v>
       </c>
       <c r="C48" s="2">
@@ -3271,7 +3416,10 @@
       <c r="F48" s="2">
         <v>3</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>46000</v>
+      </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
@@ -3279,7 +3427,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23510</v>
       </c>
       <c r="C49" s="2">
@@ -3294,7 +3442,10 @@
       <c r="F49" s="2">
         <v>3</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>47000</v>
+      </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
@@ -3302,7 +3453,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24490</v>
       </c>
       <c r="C50" s="2">
@@ -3317,7 +3468,10 @@
       <c r="F50" s="2">
         <v>3</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
@@ -3325,7 +3479,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25490</v>
       </c>
       <c r="C51" s="2">
@@ -3340,7 +3494,10 @@
       <c r="F51" s="2">
         <v>3</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2">
+        <f t="shared" si="2"/>
+        <v>49000</v>
+      </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
@@ -3348,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26510</v>
       </c>
       <c r="C52" s="2">
@@ -3363,7 +3520,10 @@
       <c r="F52" s="2">
         <v>3</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8">
@@ -3371,7 +3531,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" ref="B53:B79" si="2">10*(A52+1)*(A52+1)+10*(A52+1)-10</f>
+        <f t="shared" ref="B53:B79" si="4">10*(A52+1)*(A52+1)+10*(A52+1)-10</f>
         <v>27550</v>
       </c>
       <c r="C53" s="2">
@@ -3386,7 +3546,10 @@
       <c r="F53" s="2">
         <v>3</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2">
+        <f t="shared" si="2"/>
+        <v>51000</v>
+      </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8">
@@ -3394,7 +3557,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28610</v>
       </c>
       <c r="C54" s="2">
@@ -3409,7 +3572,10 @@
       <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8">
@@ -3417,7 +3583,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29690</v>
       </c>
       <c r="C55" s="2">
@@ -3432,7 +3598,10 @@
       <c r="F55" s="2">
         <v>3</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2">
+        <f t="shared" si="2"/>
+        <v>53000</v>
+      </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
@@ -3440,7 +3609,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30790</v>
       </c>
       <c r="C56" s="2">
@@ -3455,7 +3624,10 @@
       <c r="F56" s="2">
         <v>3</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2">
+        <f t="shared" si="2"/>
+        <v>54000</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
@@ -3463,7 +3635,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31910</v>
       </c>
       <c r="C57" s="2">
@@ -3478,7 +3650,10 @@
       <c r="F57" s="2">
         <v>3</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
@@ -3486,7 +3661,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33050</v>
       </c>
       <c r="C58" s="2">
@@ -3501,7 +3676,10 @@
       <c r="F58" s="2">
         <v>3</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2">
+        <f t="shared" si="2"/>
+        <v>56000</v>
+      </c>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
@@ -3509,7 +3687,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34210</v>
       </c>
       <c r="C59" s="2">
@@ -3524,7 +3702,10 @@
       <c r="F59" s="2">
         <v>3</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2">
+        <f t="shared" si="2"/>
+        <v>57000</v>
+      </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
@@ -3532,7 +3713,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35390</v>
       </c>
       <c r="C60" s="2">
@@ -3547,7 +3728,10 @@
       <c r="F60" s="2">
         <v>3</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2">
+        <f t="shared" si="2"/>
+        <v>58000</v>
+      </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
@@ -3555,7 +3739,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36590</v>
       </c>
       <c r="C61" s="2">
@@ -3570,7 +3754,10 @@
       <c r="F61" s="2">
         <v>3</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="2">
+        <f t="shared" si="2"/>
+        <v>59000</v>
+      </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
@@ -3578,7 +3765,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37810</v>
       </c>
       <c r="C62" s="2">
@@ -3593,7 +3780,10 @@
       <c r="F62" s="2">
         <v>3</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" s="2">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8">
@@ -3601,7 +3791,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39050</v>
       </c>
       <c r="C63" s="2">
@@ -3616,7 +3806,10 @@
       <c r="F63" s="2">
         <v>3</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2">
+        <f t="shared" si="2"/>
+        <v>61000</v>
+      </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
@@ -3624,7 +3817,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40310</v>
       </c>
       <c r="C64" s="2">
@@ -3639,7 +3832,10 @@
       <c r="F64" s="2">
         <v>3</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="2">
+        <f t="shared" si="2"/>
+        <v>62000</v>
+      </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
@@ -3647,7 +3843,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41590</v>
       </c>
       <c r="C65" s="2">
@@ -3662,7 +3858,10 @@
       <c r="F65" s="2">
         <v>3</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2">
+        <f t="shared" si="2"/>
+        <v>63000</v>
+      </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
@@ -3670,7 +3869,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42890</v>
       </c>
       <c r="C66" s="2">
@@ -3685,7 +3884,10 @@
       <c r="F66" s="2">
         <v>3</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="2">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8">
@@ -3693,7 +3895,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44210</v>
       </c>
       <c r="C67" s="2">
@@ -3708,7 +3910,10 @@
       <c r="F67" s="2">
         <v>3</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
@@ -3716,7 +3921,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45550</v>
       </c>
       <c r="C68" s="2">
@@ -3731,7 +3936,10 @@
       <c r="F68" s="2">
         <v>3</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="2">
+        <f t="shared" si="2"/>
+        <v>66000</v>
+      </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8">
@@ -3739,7 +3947,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46910</v>
       </c>
       <c r="C69" s="2">
@@ -3754,7 +3962,10 @@
       <c r="F69" s="2">
         <v>3</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2">
+        <f t="shared" si="2"/>
+        <v>67000</v>
+      </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
@@ -3762,7 +3973,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48290</v>
       </c>
       <c r="C70" s="2">
@@ -3777,7 +3988,10 @@
       <c r="F70" s="2">
         <v>3</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" s="2">
+        <f t="shared" si="2"/>
+        <v>68000</v>
+      </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8">
@@ -3785,7 +3999,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49690</v>
       </c>
       <c r="C71" s="2">
@@ -3800,7 +4014,10 @@
       <c r="F71" s="2">
         <v>3</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="2">
+        <f t="shared" si="2"/>
+        <v>69000</v>
+      </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
@@ -3808,7 +4025,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51110</v>
       </c>
       <c r="C72" s="2">
@@ -3823,7 +4040,10 @@
       <c r="F72" s="2">
         <v>3</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" s="2">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
@@ -3831,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52550</v>
       </c>
       <c r="C73" s="2">
@@ -3846,7 +4066,10 @@
       <c r="F73" s="2">
         <v>3</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" s="2">
+        <f t="shared" si="2"/>
+        <v>71000</v>
+      </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
@@ -3854,7 +4077,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54010</v>
       </c>
       <c r="C74" s="2">
@@ -3869,7 +4092,10 @@
       <c r="F74" s="2">
         <v>3</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="2">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8">
@@ -3877,7 +4103,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55490</v>
       </c>
       <c r="C75" s="2">
@@ -3892,7 +4118,10 @@
       <c r="F75" s="2">
         <v>3</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="2">
+        <f t="shared" si="2"/>
+        <v>73000</v>
+      </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
@@ -3900,7 +4129,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56990</v>
       </c>
       <c r="C76" s="2">
@@ -3915,7 +4144,10 @@
       <c r="F76" s="2">
         <v>3</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2">
+        <f t="shared" si="2"/>
+        <v>74000</v>
+      </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
@@ -3923,7 +4155,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58510</v>
       </c>
       <c r="C77" s="2">
@@ -3938,7 +4170,10 @@
       <c r="F77" s="2">
         <v>3</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="2">
+        <f t="shared" ref="G77:G82" si="5">C77*10</f>
+        <v>75000</v>
+      </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
@@ -3946,7 +4181,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60050</v>
       </c>
       <c r="C78" s="2">
@@ -3961,7 +4196,10 @@
       <c r="F78" s="2">
         <v>3</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="G78" s="2">
+        <f t="shared" si="5"/>
+        <v>76000</v>
+      </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
@@ -3969,7 +4207,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61610</v>
       </c>
       <c r="C79" s="2">
@@ -3984,7 +4222,10 @@
       <c r="F79" s="2">
         <v>3</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="2">
+        <f t="shared" si="5"/>
+        <v>77000</v>
+      </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
@@ -3992,7 +4233,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:B82" si="3">10*(A79+1)*(A79+1)+10*(A79+1)-10</f>
+        <f t="shared" ref="B80:B82" si="6">10*(A79+1)*(A79+1)+10*(A79+1)-10</f>
         <v>63190</v>
       </c>
       <c r="C80" s="2">
@@ -4007,7 +4248,10 @@
       <c r="F80" s="2">
         <v>3</v>
       </c>
-      <c r="G80" s="2"/>
+      <c r="G80" s="2">
+        <f t="shared" si="5"/>
+        <v>78000</v>
+      </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
@@ -4015,7 +4259,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64790</v>
       </c>
       <c r="C81" s="2">
@@ -4030,7 +4274,10 @@
       <c r="F81" s="2">
         <v>3</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2">
+        <f t="shared" si="5"/>
+        <v>79000</v>
+      </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
@@ -4038,7 +4285,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66410</v>
       </c>
       <c r="C82" s="2">
@@ -4053,7 +4300,10 @@
       <c r="F82" s="2">
         <v>3</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" s="2">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
       <c r="H82" s="2"/>
     </row>
   </sheetData>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -2171,13 +2171,14 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="26360" windowHeight="16340" activeTab="1"/>
+    <workbookView xWindow="5800" yWindow="120" windowWidth="29020" windowHeight="17660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2482,8 +2482,8 @@
         <v>3</v>
       </c>
       <c r="G12" s="2">
-        <f>C12*10</f>
-        <v>10000</v>
+        <f>C12*5</f>
+        <v>5000</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -2508,8 +2508,8 @@
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:G76" si="2">C13*10</f>
-        <v>11000</v>
+        <f t="shared" ref="G13:G76" si="2">C13*5</f>
+        <v>5500</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>11500</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
-        <v>27000</v>
+        <v>13500</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
-        <v>29000</v>
+        <v>14500</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
-        <v>31000</v>
+        <v>15500</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>16500</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="2"/>
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" si="2"/>
-        <v>37000</v>
+        <v>18500</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" si="2"/>
-        <v>38000</v>
+        <v>19000</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>19500</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" si="2"/>
-        <v>41000</v>
+        <v>20500</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" si="2"/>
-        <v>42000</v>
+        <v>21000</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>23000</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>47000</v>
+        <v>23500</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="2"/>
-        <v>49000</v>
+        <v>24500</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" si="2"/>
-        <v>51000</v>
+        <v>25500</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" si="2"/>
-        <v>53000</v>
+        <v>26500</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>27500</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
-        <v>57000</v>
+        <v>28500</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
-        <v>59000</v>
+        <v>29500</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
-        <v>61000</v>
+        <v>30500</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
-        <v>62000</v>
+        <v>31000</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
-        <v>63000</v>
+        <v>31500</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" si="2"/>
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="2"/>
-        <v>66000</v>
+        <v>33000</v>
       </c>
       <c r="H68" s="2"/>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="2"/>
-        <v>67000</v>
+        <v>33500</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>34000</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" si="2"/>
-        <v>69000</v>
+        <v>34500</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>35500</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>36000</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" si="2"/>
-        <v>73000</v>
+        <v>36500</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" si="2"/>
-        <v>74000</v>
+        <v>37000</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -4172,8 +4172,8 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G82" si="5">C77*10</f>
-        <v>75000</v>
+        <f t="shared" ref="G77:G82" si="5">C77*5</f>
+        <v>37500</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="5"/>
-        <v>76000</v>
+        <v>38000</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="5"/>
-        <v>77000</v>
+        <v>38500</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="5"/>
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="5"/>
-        <v>79000</v>
+        <v>39500</v>
       </c>
       <c r="H81" s="2"/>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="5"/>
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H82" s="2"/>
     </row>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="120" windowWidth="29020" windowHeight="17660" activeTab="1"/>
+    <workbookView xWindow="5800" yWindow="120" windowWidth="29020" windowHeight="17660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -928,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +985,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1334,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2170,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -4832,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5258,139 +5270,139 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="2">
+    <row r="7" spans="1:22" s="5" customFormat="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>18</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>7</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>2.8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>2.6</v>
       </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>1.2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>1.3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>1.4</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3">
         <v>43200</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="15">
         <v>12</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3">
         <v>8</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:22" s="22" customFormat="1">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="19">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="19">
         <v>18</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="19">
         <v>18</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="19">
         <v>6</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="19">
         <v>1.4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="19">
         <v>2.8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="19">
         <v>2.8</v>
       </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="19">
         <v>1.2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="19">
         <v>1.3</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="19">
         <v>1.4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="19">
         <v>10800</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="21">
         <v>14</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="19">
         <v>8</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="19">
         <v>3600</v>
       </c>
     </row>

--- a/const/dinosaurs.xlsx
+++ b/const/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="120" windowWidth="29020" windowHeight="17660" activeTab="3"/>
+    <workbookView xWindow="5800" yWindow="120" windowWidth="29020" windowHeight="17660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dinosaurs_avai" sheetId="6" r:id="rId1"/>
@@ -2180,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4184,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ref="G77:G82" si="5">C77*5</f>
+        <f t="shared" ref="G77:G91" si="5">C77*5</f>
         <v>37500</v>
       </c>
       <c r="H77" s="2"/>
@@ -4298,7 +4298,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="6"/>
+        <f>10*(A81+1)*(A81+1)+10*(A81+1)-10</f>
         <v>66410</v>
       </c>
       <c r="C82" s="2">
@@ -4318,6 +4318,222 @@
         <v>40000</v>
       </c>
       <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" ref="B83:B91" si="7">10*(A82+1)*(A82+1)+10*(A82+1)-10</f>
+        <v>68050</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8100</v>
+      </c>
+      <c r="D83" s="2">
+        <v>81000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
+      <c r="G83" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="7"/>
+        <v>69710</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8200</v>
+      </c>
+      <c r="D84" s="2">
+        <v>82000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3</v>
+      </c>
+      <c r="G84" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="7"/>
+        <v>71390</v>
+      </c>
+      <c r="C85" s="2">
+        <v>8300</v>
+      </c>
+      <c r="D85" s="2">
+        <v>83000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F85" s="2">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="7"/>
+        <v>73090</v>
+      </c>
+      <c r="C86" s="2">
+        <v>8400</v>
+      </c>
+      <c r="D86" s="2">
+        <v>84000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3</v>
+      </c>
+      <c r="G86" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="7"/>
+        <v>74810</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8500</v>
+      </c>
+      <c r="D87" s="2">
+        <v>85000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+      <c r="G87" s="2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="7"/>
+        <v>76550</v>
+      </c>
+      <c r="C88" s="2">
+        <v>8600</v>
+      </c>
+      <c r="D88" s="2">
+        <v>86000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F88" s="2">
+        <v>3</v>
+      </c>
+      <c r="G88" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="7"/>
+        <v>78310</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8700</v>
+      </c>
+      <c r="D89" s="2">
+        <v>87000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3</v>
+      </c>
+      <c r="G89" s="2">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="7"/>
+        <v>80090</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D90" s="2">
+        <v>88000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F90" s="2">
+        <v>3</v>
+      </c>
+      <c r="G90" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="7"/>
+        <v>81890</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8900</v>
+      </c>
+      <c r="D91" s="2">
+        <v>89000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F91" s="2">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2">
+        <v>130000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4844,7 +5060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
